--- a/content/simulator/Period 7.xlsx
+++ b/content/simulator/Period 7.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/543990dc0ff5ce14/My Documents/GitHub/website/content/simulator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2FF24D43-AB58-491D-94D6-7872D852608C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ABD8A60C-5C9F-4375-83AD-298E8E60A505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{0FF29690-92AA-417F-8826-282ACE366C43}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{D2177BC5-E1F7-43BF-BFF2-477BF18C2378}"/>
   </bookViews>
   <sheets>
     <sheet name="Periodo 7" sheetId="1" r:id="rId1"/>
@@ -381,7 +381,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1865" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1865" uniqueCount="207">
   <si>
     <t>TEAM 1</t>
   </si>
@@ -899,19 +899,22 @@
     <t>RANKING</t>
   </si>
   <si>
-    <t>9°</t>
+    <t>10°</t>
+  </si>
+  <si>
+    <t>7°</t>
   </si>
   <si>
     <t>5°</t>
   </si>
   <si>
-    <t>4°</t>
-  </si>
-  <si>
-    <t>8°</t>
+    <t>9°</t>
   </si>
   <si>
     <t>1°</t>
+  </si>
+  <si>
+    <t>4°</t>
   </si>
   <si>
     <t>3°</t>
@@ -920,13 +923,10 @@
     <t>2°</t>
   </si>
   <si>
-    <t>10°</t>
-  </si>
-  <si>
     <t>6°</t>
   </si>
   <si>
-    <t>7°</t>
+    <t>8°</t>
   </si>
   <si>
     <t>Equity Issue</t>
@@ -969,9 +969,6 @@
   </si>
   <si>
     <t>BB</t>
-  </si>
-  <si>
-    <t>CCC</t>
   </si>
   <si>
     <t>Stock</t>
@@ -3106,7 +3103,7 @@
   <cellStyles count="5">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
-    <cellStyle name="Millares_Simulador VBMfinal" xfId="3" xr:uid="{4AEACBE1-E185-4874-BEA0-0286DDA7C446}"/>
+    <cellStyle name="Millares_Simulador VBMfinal" xfId="3" xr:uid="{FF88DF63-5BC5-4D1D-9C16-F2A63B470DE1}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
@@ -6318,16 +6315,16 @@
             <v>197000000</v>
           </cell>
           <cell r="U952">
-            <v>480928000</v>
+            <v>506240000</v>
           </cell>
           <cell r="V952">
-            <v>12656000</v>
+            <v>564645800</v>
           </cell>
           <cell r="W952">
-            <v>154052860</v>
+            <v>170114425</v>
           </cell>
           <cell r="X952">
-            <v>89203420</v>
+            <v>98431360</v>
           </cell>
         </row>
         <row r="953">
@@ -6350,16 +6347,16 @@
             <v>5000</v>
           </cell>
           <cell r="I953">
+            <v>4000</v>
+          </cell>
+          <cell r="J953">
             <v>3800</v>
           </cell>
-          <cell r="J953">
-            <v>100</v>
-          </cell>
           <cell r="K953">
-            <v>4460</v>
+            <v>4925</v>
           </cell>
           <cell r="L953">
-            <v>4930</v>
+            <v>5440</v>
           </cell>
         </row>
         <row r="954">
@@ -6382,7 +6379,7 @@
             <v>250000</v>
           </cell>
           <cell r="I954">
-            <v>150000</v>
+            <v>500000</v>
           </cell>
           <cell r="J954">
             <v>150000</v>
@@ -6396,7 +6393,7 @@
         </row>
         <row r="970">
           <cell r="C970">
-            <v>3851.6332957540371</v>
+            <v>4779.8298508211919</v>
           </cell>
         </row>
         <row r="973">
@@ -6491,7 +6488,7 @@
             <v>126560</v>
           </cell>
           <cell r="J986">
-            <v>126560</v>
+            <v>148591</v>
           </cell>
           <cell r="K986">
             <v>34541</v>
@@ -6534,34 +6531,34 @@
         </row>
         <row r="988">
           <cell r="C988">
-            <v>1790753</v>
+            <v>2244088</v>
           </cell>
           <cell r="D988">
-            <v>243525</v>
+            <v>307984</v>
           </cell>
           <cell r="E988">
-            <v>171891</v>
+            <v>220553</v>
           </cell>
           <cell r="F988">
-            <v>630373</v>
+            <v>790867</v>
           </cell>
           <cell r="G988">
-            <v>318789</v>
+            <v>404432</v>
           </cell>
           <cell r="H988">
-            <v>446163</v>
+            <v>560165</v>
           </cell>
           <cell r="I988">
-            <v>459058</v>
+            <v>1277331</v>
           </cell>
           <cell r="J988">
-            <v>16064920</v>
+            <v>524371</v>
           </cell>
           <cell r="K988">
-            <v>283943</v>
+            <v>322324</v>
           </cell>
           <cell r="L988">
-            <v>299291</v>
+            <v>340008</v>
           </cell>
         </row>
         <row r="989">
@@ -6587,7 +6584,7 @@
             <v>126560</v>
           </cell>
           <cell r="J989">
-            <v>126560</v>
+            <v>148591</v>
           </cell>
           <cell r="K989">
             <v>34541</v>
@@ -6680,16 +6677,16 @@
             <v>0.84919999999999995</v>
           </cell>
           <cell r="U1053">
-            <v>0.52149999999999996</v>
+            <v>0.52569999999999995</v>
           </cell>
           <cell r="V1053">
-            <v>0.21809999999999999</v>
+            <v>0.54590000000000005</v>
           </cell>
           <cell r="W1053">
-            <v>0.4511</v>
+            <v>0.46260000000000001</v>
           </cell>
           <cell r="X1053">
-            <v>0.3695</v>
+            <v>0.38250000000000001</v>
           </cell>
         </row>
         <row r="1054">
@@ -6744,16 +6741,16 @@
             <v>108413989.55741814</v>
           </cell>
           <cell r="U1056">
-            <v>165294435.86805677</v>
+            <v>173706189.82213178</v>
           </cell>
           <cell r="V1056">
-            <v>12283075.163054029</v>
+            <v>191563183.09480506</v>
           </cell>
           <cell r="W1056">
-            <v>52454922.011627778</v>
+            <v>57679837.45854973</v>
           </cell>
           <cell r="X1056">
-            <v>30503701.676191162</v>
+            <v>33501459.786009867</v>
           </cell>
         </row>
         <row r="1085">
@@ -6882,7 +6879,7 @@
             <v>825209.57500000007</v>
           </cell>
           <cell r="I1108">
-            <v>553427.16</v>
+            <v>856727.16</v>
           </cell>
           <cell r="J1108">
             <v>513903.16499999998</v>
@@ -6919,7 +6916,7 @@
             <v>85460</v>
           </cell>
           <cell r="I1118">
-            <v>213904</v>
+            <v>190560</v>
           </cell>
           <cell r="J1118">
             <v>233731</v>
@@ -7015,7 +7012,7 @@
             <v>147812</v>
           </cell>
           <cell r="I1123">
-            <v>103133</v>
+            <v>152887</v>
           </cell>
           <cell r="J1123">
             <v>96470</v>
@@ -7143,80 +7140,80 @@
             <v>-1.17E-2</v>
           </cell>
           <cell r="U1188">
-            <v>0.27210000000000001</v>
+            <v>0.27600000000000002</v>
           </cell>
           <cell r="V1188">
-            <v>-2.4799999999999999E-2</v>
+            <v>0.28970000000000001</v>
           </cell>
           <cell r="W1188">
-            <v>0.2271</v>
+            <v>0.2359</v>
           </cell>
           <cell r="X1188">
-            <v>0.1719</v>
+            <v>0.18149999999999999</v>
           </cell>
         </row>
         <row r="1189">
           <cell r="O1189">
-            <v>6.7001062720366572E-2</v>
+            <v>6.6930549073091899E-2</v>
           </cell>
           <cell r="P1189">
-            <v>6.9320393887146406E-2</v>
+            <v>6.9238438705217675E-2</v>
           </cell>
           <cell r="Q1189">
-            <v>6.8369268558610391E-2</v>
+            <v>6.8288952379578549E-2</v>
           </cell>
           <cell r="R1189">
-            <v>7.2788104741194889E-2</v>
+            <v>7.2687853529038421E-2</v>
           </cell>
           <cell r="S1189">
-            <v>8.7401924193765662E-2</v>
+            <v>8.7225206085948692E-2</v>
           </cell>
           <cell r="T1189">
-            <v>0.13935965952118562</v>
+            <v>0.13922506024377893</v>
           </cell>
           <cell r="U1189">
-            <v>7.150158865897964E-2</v>
+            <v>7.1489031907578993E-2</v>
           </cell>
           <cell r="V1189">
-            <v>0.18365195270682802</v>
+            <v>7.3866613316380905E-2</v>
           </cell>
           <cell r="W1189">
-            <v>7.300452937215221E-2</v>
+            <v>7.3073892948446795E-2</v>
           </cell>
           <cell r="X1189">
-            <v>7.183854160069518E-2</v>
+            <v>7.1876463810564742E-2</v>
           </cell>
         </row>
         <row r="1191">
           <cell r="O1191">
-            <v>5685542.485203092</v>
+            <v>5688397.9793053605</v>
           </cell>
           <cell r="P1191">
-            <v>22118836.876526002</v>
+            <v>22127511.183717914</v>
           </cell>
           <cell r="Q1191">
-            <v>-12090709.342478389</v>
+            <v>-12078043.51698626</v>
           </cell>
           <cell r="R1191">
-            <v>7359838.2424065536</v>
+            <v>7367113.8455613302</v>
           </cell>
           <cell r="S1191">
-            <v>-48039003.307673499</v>
+            <v>-47951665.923806265</v>
           </cell>
           <cell r="T1191">
-            <v>-20723351.86346839</v>
+            <v>-20704886.654456872</v>
           </cell>
           <cell r="U1191">
-            <v>72383649.307168022</v>
+            <v>77092233.863199487</v>
           </cell>
           <cell r="V1191">
-            <v>-16240205.03834288</v>
+            <v>86145491.613846973</v>
           </cell>
           <cell r="W1191">
-            <v>21367830.230814934</v>
+            <v>24100545.1340192</v>
           </cell>
           <cell r="X1191">
-            <v>10266603.984218694</v>
+            <v>11836452.535921497</v>
           </cell>
         </row>
         <row r="1220">
@@ -7345,7 +7342,7 @@
             <v>780552.30250000011</v>
           </cell>
           <cell r="I1243">
-            <v>535948.12900000007</v>
+            <v>808918.12900000007</v>
           </cell>
           <cell r="J1243">
             <v>500376.53349999996</v>
@@ -7382,7 +7379,7 @@
             <v>77914</v>
           </cell>
           <cell r="I1253">
-            <v>193514</v>
+            <v>172504</v>
           </cell>
           <cell r="J1253">
             <v>211358</v>
@@ -7478,7 +7475,7 @@
             <v>142957</v>
           </cell>
           <cell r="I1258">
-            <v>101882</v>
+            <v>147628</v>
           </cell>
           <cell r="J1258">
             <v>95766</v>
@@ -7606,80 +7603,80 @@
             <v>-8.8999999999999999E-3</v>
           </cell>
           <cell r="U1323">
+            <v>-8.5000000000000006E-3</v>
+          </cell>
+          <cell r="V1323">
             <v>-1.01E-2</v>
           </cell>
-          <cell r="V1323">
-            <v>-5.6000000000000001E-2</v>
-          </cell>
           <cell r="W1323">
-            <v>-7.0000000000000001E-3</v>
+            <v>-6.6E-3</v>
           </cell>
           <cell r="X1323">
-            <v>-0.01</v>
+            <v>-9.4000000000000004E-3</v>
           </cell>
         </row>
         <row r="1324">
           <cell r="O1324">
-            <v>0.17559290215038689</v>
+            <v>0.17583092380570722</v>
           </cell>
           <cell r="P1324">
-            <v>6.7405154603819947E-2</v>
+            <v>6.767329448470577E-2</v>
           </cell>
           <cell r="Q1324">
-            <v>0.1794192319792898</v>
+            <v>0.1797224396190443</v>
           </cell>
           <cell r="R1324">
-            <v>0.18394728349811307</v>
+            <v>0.18428967291806628</v>
           </cell>
           <cell r="S1324">
-            <v>0.37567658731114445</v>
+            <v>0.32600438154437689</v>
           </cell>
           <cell r="T1324">
-            <v>8.0586642165314595E-2</v>
+            <v>8.1094861261318429E-2</v>
           </cell>
           <cell r="U1324">
-            <v>0.23637225897599415</v>
+            <v>0.21058181363245554</v>
           </cell>
           <cell r="V1324">
-            <v>7.4362434608733555E-2</v>
+            <v>0.23218033521505424</v>
           </cell>
           <cell r="W1324">
-            <v>0.18371499754663428</v>
+            <v>0.18412219762142801</v>
           </cell>
           <cell r="X1324">
-            <v>0.18282087896981034</v>
+            <v>0.18317871301450855</v>
           </cell>
         </row>
         <row r="1326">
           <cell r="O1326">
-            <v>-7620988.885824753</v>
+            <v>-7630627.7211317951</v>
           </cell>
           <cell r="P1326">
-            <v>-8110973.4479324296</v>
+            <v>-8139180.0635001129</v>
           </cell>
           <cell r="Q1326">
-            <v>-28803843.933469269</v>
+            <v>-28850970.966328442</v>
           </cell>
           <cell r="R1326">
-            <v>-13965096.175623693</v>
+            <v>-13989967.794572782</v>
           </cell>
           <cell r="S1326">
-            <v>-186874640.45388296</v>
+            <v>-162706347.20226607</v>
           </cell>
           <cell r="T1326">
-            <v>-12177442.508841785</v>
+            <v>-12246601.532733297</v>
           </cell>
           <cell r="U1326">
-            <v>-87320791.741701722</v>
+            <v>-81344169.673074558</v>
           </cell>
           <cell r="V1326">
-            <v>-9243228.0821701344</v>
+            <v>-94976385.426551536</v>
           </cell>
           <cell r="W1326">
-            <v>-26317672.961739376</v>
+            <v>-28101505.373323373</v>
           </cell>
           <cell r="X1326">
-            <v>-19634980.272988506</v>
+            <v>-20644595.474695928</v>
           </cell>
         </row>
         <row r="1355">
@@ -7808,7 +7805,7 @@
             <v>740360.75725000014</v>
           </cell>
           <cell r="I1378">
-            <v>520217.00110000005</v>
+            <v>765890.00110000011</v>
           </cell>
           <cell r="J1378">
             <v>488202.56514999998</v>
@@ -7845,7 +7842,7 @@
             <v>71123</v>
           </cell>
           <cell r="I1388">
-            <v>175163</v>
+            <v>156254</v>
           </cell>
           <cell r="J1388">
             <v>191223</v>
@@ -7877,7 +7874,7 @@
             <v>65011</v>
           </cell>
           <cell r="I1390">
-            <v>158647</v>
+            <v>141629</v>
           </cell>
           <cell r="J1390">
             <v>173101</v>
@@ -7973,7 +7970,7 @@
             <v>137949</v>
           </cell>
           <cell r="I1393">
-            <v>100376</v>
+            <v>142226</v>
           </cell>
           <cell r="J1393">
             <v>94790</v>
@@ -8101,112 +8098,112 @@
             <v>-8.0999999999999996E-3</v>
           </cell>
           <cell r="U1458">
-            <v>-9.2999999999999992E-3</v>
+            <v>-7.7000000000000002E-3</v>
           </cell>
           <cell r="V1458">
-            <v>-5.5399999999999998E-2</v>
+            <v>-9.1999999999999998E-3</v>
           </cell>
           <cell r="W1458">
-            <v>-6.1000000000000004E-3</v>
+            <v>-5.7000000000000002E-3</v>
           </cell>
           <cell r="X1458">
-            <v>-8.9999999999999993E-3</v>
+            <v>-8.5000000000000006E-3</v>
           </cell>
         </row>
         <row r="1459">
           <cell r="O1459">
-            <v>6.7129593622905034E-2</v>
+            <v>6.7422313787816171E-2</v>
           </cell>
           <cell r="P1459">
-            <v>6.6782979109487065E-2</v>
+            <v>6.7067758673183805E-2</v>
           </cell>
           <cell r="Q1459">
-            <v>6.9105056621259014E-2</v>
+            <v>6.9437583669031355E-2</v>
           </cell>
           <cell r="R1459">
-            <v>7.0955759023999157E-2</v>
+            <v>7.1327941272971984E-2</v>
           </cell>
           <cell r="S1459">
-            <v>8.6549908158815955E-2</v>
+            <v>8.6456664889744905E-2</v>
           </cell>
           <cell r="T1459">
-            <v>7.6855399447363373E-2</v>
+            <v>7.7348043589443111E-2</v>
           </cell>
           <cell r="U1459">
-            <v>7.1577436554879206E-2</v>
+            <v>7.1428162481229171E-2</v>
           </cell>
           <cell r="V1459">
-            <v>7.2286330737816692E-2</v>
+            <v>7.3533526393257526E-2</v>
           </cell>
           <cell r="W1459">
-            <v>7.1337019230551676E-2</v>
+            <v>7.183669797460418E-2</v>
           </cell>
           <cell r="X1459">
-            <v>7.0620249933520313E-2</v>
+            <v>7.1054354783472301E-2</v>
           </cell>
         </row>
         <row r="1461">
           <cell r="O1461">
-            <v>-3188203.9711901275</v>
+            <v>-3200057.8567402954</v>
           </cell>
           <cell r="P1461">
-            <v>-7876021.4958314663</v>
+            <v>-7905735.8763674507</v>
           </cell>
           <cell r="Q1461">
-            <v>-9668598.2618319746</v>
+            <v>-9711179.1243592463</v>
           </cell>
           <cell r="R1461">
-            <v>-5673595.0593013652</v>
+            <v>-5700613.0474227965</v>
           </cell>
           <cell r="S1461">
-            <v>-45192017.404342696</v>
+            <v>-45147308.061691709</v>
           </cell>
           <cell r="T1461">
-            <v>-11452430.746312862</v>
+            <v>-11518841.744983295</v>
           </cell>
           <cell r="U1461">
-            <v>-28172187.980100837</v>
+            <v>-28974264.539456714</v>
           </cell>
           <cell r="V1461">
-            <v>-8214531.9780273261</v>
+            <v>-31888802.182218939</v>
           </cell>
           <cell r="W1461">
-            <v>-10630770.2492403</v>
+            <v>-11369254.361368351</v>
           </cell>
           <cell r="X1461">
-            <v>-8039838.081673176</v>
+            <v>-8460443.6441378687</v>
           </cell>
         </row>
         <row r="1476">
           <cell r="O1476">
-            <v>6.6389332793346953E-2</v>
+            <v>6.6651494092305336E-2</v>
           </cell>
           <cell r="P1476">
-            <v>6.6377836220524428E-2</v>
+            <v>6.6639834489793506E-2</v>
           </cell>
           <cell r="Q1476">
-            <v>6.7832711679920762E-2</v>
+            <v>6.8120430768731643E-2</v>
           </cell>
           <cell r="R1476">
-            <v>6.9718603891746347E-2</v>
+            <v>7.0041820003682198E-2</v>
           </cell>
           <cell r="S1476">
-            <v>8.4386012629338578E-2</v>
+            <v>8.4271552729196481E-2</v>
           </cell>
           <cell r="T1476">
-            <v>7.5352281904054463E-2</v>
+            <v>7.5777913939196778E-2</v>
           </cell>
           <cell r="U1476">
-            <v>7.069287270299783E-2</v>
+            <v>7.0560491718602042E-2</v>
           </cell>
           <cell r="V1476">
-            <v>7.1458012069443494E-2</v>
+            <v>7.2467251330781607E-2</v>
           </cell>
           <cell r="W1476">
-            <v>7.0301053802371782E-2</v>
+            <v>7.0749411119608779E-2</v>
           </cell>
           <cell r="X1476">
-            <v>6.962737133924643E-2</v>
+            <v>7.0018668567594797E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -8253,22 +8250,22 @@
         </row>
         <row r="20">
           <cell r="M20">
-            <v>0.52982714467976855</v>
+            <v>0.53463571523513731</v>
           </cell>
         </row>
         <row r="21">
           <cell r="M21">
-            <v>2.4933779688078885E-2</v>
+            <v>7.5302057646205817E-2</v>
           </cell>
         </row>
         <row r="22">
           <cell r="M22">
-            <v>-0.24080170533982809</v>
+            <v>-0.22769340504094931</v>
           </cell>
         </row>
         <row r="23">
           <cell r="M23">
-            <v>-8.5743925682826835E-2</v>
+            <v>-8.3424586556998137E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -9092,7 +9089,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62DF09DE-5B75-48B9-AE9C-43F96FB371F4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CEE91D4-0B26-4B4D-B953-C71157052E81}">
   <sheetPr codeName="Hoja9">
     <tabColor theme="1"/>
     <pageSetUpPr fitToPage="1"/>
@@ -9930,14 +9927,14 @@
         <v>29</v>
       </c>
       <c r="BL11" s="43">
-        <v>480928000</v>
+        <v>506240000</v>
       </c>
       <c r="BM11" s="14"/>
       <c r="BN11" s="44" t="s">
         <v>30</v>
       </c>
       <c r="BO11" s="45">
-        <v>346245746.45625001</v>
+        <v>363462060.45625001</v>
       </c>
       <c r="BP11" s="17"/>
       <c r="BQ11" s="7"/>
@@ -9948,14 +9945,14 @@
         <v>29</v>
       </c>
       <c r="BV11" s="43">
-        <v>12656000</v>
+        <v>564645800</v>
       </c>
       <c r="BW11" s="14"/>
       <c r="BX11" s="44" t="s">
         <v>30</v>
       </c>
       <c r="BY11" s="45">
-        <v>62283257.8015</v>
+        <v>383389474.90149999</v>
       </c>
       <c r="BZ11" s="17"/>
       <c r="CA11" s="7"/>
@@ -9966,14 +9963,14 @@
         <v>29</v>
       </c>
       <c r="CF11" s="43">
-        <v>154052860</v>
+        <v>170114425</v>
       </c>
       <c r="CG11" s="14"/>
       <c r="CH11" s="44" t="s">
         <v>30</v>
       </c>
       <c r="CI11" s="45">
-        <v>132099156.24670233</v>
+        <v>141446987.07670233</v>
       </c>
       <c r="CJ11" s="17"/>
       <c r="CK11" s="7"/>
@@ -9984,14 +9981,14 @@
         <v>29</v>
       </c>
       <c r="CP11" s="43">
-        <v>89203420</v>
+        <v>98431360</v>
       </c>
       <c r="CQ11" s="14"/>
       <c r="CR11" s="44" t="s">
         <v>30</v>
       </c>
       <c r="CS11" s="45">
-        <v>95794614.636549979</v>
+        <v>101165275.71655001</v>
       </c>
       <c r="CT11" s="17"/>
       <c r="CU11" s="7"/>
@@ -10147,14 +10144,14 @@
         <v>33</v>
       </c>
       <c r="BL12" s="56">
-        <v>139469120.00000003</v>
+        <v>146809600.00000003</v>
       </c>
       <c r="BM12" s="14"/>
       <c r="BN12" s="57" t="s">
         <v>34</v>
       </c>
       <c r="BO12" s="58">
-        <v>174816306.45625001</v>
+        <v>183046860.45625001</v>
       </c>
       <c r="BP12" s="17"/>
       <c r="BQ12" s="32"/>
@@ -10165,14 +10162,14 @@
         <v>33</v>
       </c>
       <c r="BV12" s="56">
-        <v>3670240.0000000005</v>
+        <v>163747282.00000003</v>
       </c>
       <c r="BW12" s="14"/>
       <c r="BX12" s="57" t="s">
         <v>34</v>
       </c>
       <c r="BY12" s="58">
-        <v>57090377.8015</v>
+        <v>182240215.90149996</v>
       </c>
       <c r="BZ12" s="17"/>
       <c r="CA12" s="32"/>
@@ -10183,14 +10180,14 @@
         <v>33</v>
       </c>
       <c r="CF12" s="56">
-        <v>44675329.400000006</v>
+        <v>49333183.250000007</v>
       </c>
       <c r="CG12" s="14"/>
       <c r="CH12" s="57" t="s">
         <v>34</v>
       </c>
       <c r="CI12" s="58">
-        <v>76710390.946702331</v>
+        <v>80356366.201702327</v>
       </c>
       <c r="CJ12" s="17"/>
       <c r="CK12" s="32"/>
@@ -10201,14 +10198,14 @@
         <v>33</v>
       </c>
       <c r="CP12" s="56">
-        <v>25868991.800000004</v>
+        <v>28545094.400000002</v>
       </c>
       <c r="CQ12" s="14"/>
       <c r="CR12" s="57" t="s">
         <v>34</v>
       </c>
       <c r="CS12" s="58">
-        <v>63427400.536549993</v>
+        <v>65522142.91655001</v>
       </c>
       <c r="CT12" s="17"/>
       <c r="CU12" s="7"/>
@@ -10241,7 +10238,7 @@
         <v>3722786</v>
       </c>
       <c r="DH12" s="61">
-        <v>20708706</v>
+        <v>6992123</v>
       </c>
       <c r="DI12" s="61"/>
       <c r="DJ12" s="61"/>
@@ -10380,14 +10377,14 @@
         <v>37</v>
       </c>
       <c r="BL13" s="56">
-        <v>341458880</v>
+        <v>359430400</v>
       </c>
       <c r="BM13" s="14"/>
       <c r="BN13" s="57" t="s">
         <v>38</v>
       </c>
       <c r="BO13" s="58">
-        <v>171429440</v>
+        <v>180415200</v>
       </c>
       <c r="BP13" s="17"/>
       <c r="BQ13" s="32"/>
@@ -10398,14 +10395,14 @@
         <v>37</v>
       </c>
       <c r="BV13" s="56">
-        <v>8985760</v>
+        <v>400898518</v>
       </c>
       <c r="BW13" s="14"/>
       <c r="BX13" s="57" t="s">
         <v>38</v>
       </c>
       <c r="BY13" s="58">
-        <v>5192880</v>
+        <v>201149259</v>
       </c>
       <c r="BZ13" s="17"/>
       <c r="CA13" s="32"/>
@@ -10416,14 +10413,14 @@
         <v>37</v>
       </c>
       <c r="CF13" s="56">
-        <v>109377530.59999999</v>
+        <v>120781241.75</v>
       </c>
       <c r="CG13" s="14"/>
       <c r="CH13" s="57" t="s">
         <v>38</v>
       </c>
       <c r="CI13" s="58">
-        <v>55388765.299999997</v>
+        <v>61090620.875</v>
       </c>
       <c r="CJ13" s="17"/>
       <c r="CK13" s="32"/>
@@ -10434,14 +10431,14 @@
         <v>37</v>
       </c>
       <c r="CP13" s="56">
-        <v>63334428.199999996</v>
+        <v>69886265.599999994</v>
       </c>
       <c r="CQ13" s="14"/>
       <c r="CR13" s="57" t="s">
         <v>38</v>
       </c>
       <c r="CS13" s="58">
-        <v>32367214.099999994</v>
+        <v>35643132.799999997</v>
       </c>
       <c r="CT13" s="17"/>
       <c r="CU13" s="7"/>
@@ -10474,7 +10471,7 @@
         <v>274731</v>
       </c>
       <c r="DH13" s="61">
-        <v>535756</v>
+        <v>557787</v>
       </c>
       <c r="DI13" s="61"/>
       <c r="DJ13" s="61"/>
@@ -10613,7 +10610,7 @@
         <v>41</v>
       </c>
       <c r="BL14" s="43">
-        <v>3525650</v>
+        <v>3175400</v>
       </c>
       <c r="BM14" s="14"/>
       <c r="BN14" s="57" t="s">
@@ -10631,7 +10628,7 @@
         <v>41</v>
       </c>
       <c r="BV14" s="43">
-        <v>3822650</v>
+        <v>3877727.4999999995</v>
       </c>
       <c r="BW14" s="14"/>
       <c r="BX14" s="57" t="s">
@@ -10707,7 +10704,7 @@
         <v>269980</v>
       </c>
       <c r="DH14" s="61">
-        <v>540507</v>
+        <v>562538</v>
       </c>
       <c r="DI14" s="61"/>
       <c r="DJ14" s="61"/>
@@ -10846,14 +10843,14 @@
         <v>45</v>
       </c>
       <c r="BL15" s="64">
-        <v>3209250</v>
+        <v>2859000</v>
       </c>
       <c r="BM15" s="14"/>
       <c r="BN15" s="44" t="s">
         <v>46</v>
       </c>
       <c r="BO15" s="65">
-        <v>21390400</v>
+        <v>19056000</v>
       </c>
       <c r="BP15" s="17"/>
       <c r="BQ15" s="7"/>
@@ -10864,7 +10861,7 @@
         <v>45</v>
       </c>
       <c r="BV15" s="64">
-        <v>3506250</v>
+        <v>3506249.9999999995</v>
       </c>
       <c r="BW15" s="14"/>
       <c r="BX15" s="44" t="s">
@@ -11086,7 +11083,7 @@
         <v>50</v>
       </c>
       <c r="BO16" s="66">
-        <v>24191600</v>
+        <v>21857200</v>
       </c>
       <c r="BP16" s="17"/>
       <c r="BQ16" s="7"/>
@@ -11097,7 +11094,7 @@
         <v>49</v>
       </c>
       <c r="BV16" s="64">
-        <v>189840</v>
+        <v>222886.5</v>
       </c>
       <c r="BW16" s="14"/>
       <c r="BX16" s="57" t="s">
@@ -11319,7 +11316,7 @@
         <v>54</v>
       </c>
       <c r="BO17" s="70">
-        <v>18143700</v>
+        <v>16392900</v>
       </c>
       <c r="BP17" s="17"/>
       <c r="BQ17" s="7"/>
@@ -11330,7 +11327,7 @@
         <v>53</v>
       </c>
       <c r="BV17" s="68">
-        <v>126560</v>
+        <v>148591</v>
       </c>
       <c r="BW17" s="14"/>
       <c r="BX17" s="69" t="s">
@@ -11406,7 +11403,7 @@
         <v>0.98307456138781435</v>
       </c>
       <c r="DH17" s="71">
-        <v>0.90678843927505126</v>
+        <v>0.94407678715294463</v>
       </c>
       <c r="DI17" s="71"/>
       <c r="DJ17" s="71"/>
@@ -11545,14 +11542,14 @@
         <v>57</v>
       </c>
       <c r="BL18" s="73">
-        <v>477402350</v>
+        <v>503064600</v>
       </c>
       <c r="BM18" s="14"/>
       <c r="BN18" s="69" t="s">
         <v>58</v>
       </c>
       <c r="BO18" s="70">
-        <v>6047900</v>
+        <v>5464300</v>
       </c>
       <c r="BP18" s="17"/>
       <c r="BQ18" s="7"/>
@@ -11563,7 +11560,7 @@
         <v>57</v>
       </c>
       <c r="BV18" s="73">
-        <v>8833350</v>
+        <v>560768072.5</v>
       </c>
       <c r="BW18" s="14"/>
       <c r="BX18" s="69" t="s">
@@ -11581,7 +11578,7 @@
         <v>57</v>
       </c>
       <c r="CF18" s="73">
-        <v>152891007.5</v>
+        <v>168952572.5</v>
       </c>
       <c r="CG18" s="14"/>
       <c r="CH18" s="69" t="s">
@@ -11599,7 +11596,7 @@
         <v>57</v>
       </c>
       <c r="CP18" s="73">
-        <v>88034685</v>
+        <v>97262625</v>
       </c>
       <c r="CQ18" s="14"/>
       <c r="CR18" s="69" t="s">
@@ -11639,7 +11636,7 @@
         <v>590828</v>
       </c>
       <c r="DH18" s="76">
-        <v>1168851</v>
+        <v>1145507</v>
       </c>
       <c r="DI18" s="76"/>
       <c r="DJ18" s="76"/>
@@ -11778,7 +11775,7 @@
         <v>61</v>
       </c>
       <c r="BL19" s="56">
-        <v>150000</v>
+        <v>500000</v>
       </c>
       <c r="BM19" s="14"/>
       <c r="BN19" s="57" t="s">
@@ -12000,7 +11997,7 @@
         <v>65</v>
       </c>
       <c r="BO20" s="80">
-        <v>553427.16</v>
+        <v>856727.16</v>
       </c>
       <c r="BP20" s="17"/>
       <c r="BQ20" s="7"/>
@@ -12210,14 +12207,14 @@
         <v>68</v>
       </c>
       <c r="BL21" s="56">
-        <v>2568000</v>
+        <v>2287200</v>
       </c>
       <c r="BM21" s="14"/>
       <c r="BN21" s="57" t="s">
         <v>69</v>
       </c>
       <c r="BO21" s="58">
-        <v>683000</v>
+        <v>986300</v>
       </c>
       <c r="BP21" s="17"/>
       <c r="BQ21" s="7"/>
@@ -12304,7 +12301,7 @@
         <v>9553327.5</v>
       </c>
       <c r="DH21" s="61">
-        <v>19123210.335861467</v>
+        <v>18828037.835861467</v>
       </c>
       <c r="DI21" s="61"/>
       <c r="DJ21" s="61"/>
@@ -12431,7 +12428,7 @@
         <v>70</v>
       </c>
       <c r="BL22" s="64">
-        <v>15567240</v>
+        <v>16326600</v>
       </c>
       <c r="BM22" s="14"/>
       <c r="BN22" s="57" t="s">
@@ -12449,7 +12446,7 @@
         <v>70</v>
       </c>
       <c r="BV22" s="64">
-        <v>1519080</v>
+        <v>18276774</v>
       </c>
       <c r="BW22" s="14"/>
       <c r="BX22" s="57" t="s">
@@ -12467,7 +12464,7 @@
         <v>70</v>
       </c>
       <c r="CF22" s="64">
-        <v>4932985.8</v>
+        <v>5414832.75</v>
       </c>
       <c r="CG22" s="14"/>
       <c r="CH22" s="57" t="s">
@@ -12485,7 +12482,7 @@
         <v>70</v>
       </c>
       <c r="CP22" s="64">
-        <v>2839002.6</v>
+        <v>3115840.8</v>
       </c>
       <c r="CQ22" s="14"/>
       <c r="CR22" s="57" t="s">
@@ -12525,7 +12522,7 @@
         <v>458100150</v>
       </c>
       <c r="DH22" s="61">
-        <v>2068286648</v>
+        <v>2670877953</v>
       </c>
       <c r="DI22" s="61"/>
       <c r="DJ22" s="61"/>
@@ -12654,7 +12651,7 @@
         <v>71</v>
       </c>
       <c r="BV23" s="64">
-        <v>1139400</v>
+        <v>1337400</v>
       </c>
       <c r="BW23" s="14"/>
       <c r="BX23" s="57"/>
@@ -12718,7 +12715,7 @@
         <v>1689.0663958563105</v>
       </c>
       <c r="DH23" s="61">
-        <v>3851.6332957540371</v>
+        <v>4779.8298508211919</v>
       </c>
       <c r="DI23" s="61"/>
       <c r="DJ23" s="61"/>
@@ -12857,14 +12854,14 @@
         <v>73</v>
       </c>
       <c r="BL24" s="56">
-        <v>14427840</v>
+        <v>15187200</v>
       </c>
       <c r="BM24" s="14"/>
       <c r="BN24" s="88" t="s">
         <v>74</v>
       </c>
       <c r="BO24" s="89">
-        <v>368189573.61625004</v>
+        <v>383374787.61625004</v>
       </c>
       <c r="BP24" s="17"/>
       <c r="BQ24" s="7"/>
@@ -12875,14 +12872,14 @@
         <v>73</v>
       </c>
       <c r="BV24" s="56">
-        <v>379680</v>
+        <v>16939374</v>
       </c>
       <c r="BW24" s="14"/>
       <c r="BX24" s="88" t="s">
         <v>74</v>
       </c>
       <c r="BY24" s="89">
-        <v>86170350.966499999</v>
+        <v>407276568.06650001</v>
       </c>
       <c r="BZ24" s="17"/>
       <c r="CA24" s="7"/>
@@ -12893,14 +12890,14 @@
         <v>73</v>
       </c>
       <c r="CF24" s="56">
-        <v>4621585.8</v>
+        <v>5103432.75</v>
       </c>
       <c r="CG24" s="14"/>
       <c r="CH24" s="88" t="s">
         <v>74</v>
       </c>
       <c r="CI24" s="89">
-        <v>139651778.52420235</v>
+        <v>148999609.35420233</v>
       </c>
       <c r="CJ24" s="17"/>
       <c r="CK24" s="7"/>
@@ -12911,14 +12908,14 @@
         <v>73</v>
       </c>
       <c r="CP24" s="56">
-        <v>2676102.6</v>
+        <v>2952940.8</v>
       </c>
       <c r="CQ24" s="14"/>
       <c r="CR24" s="88" t="s">
         <v>74</v>
       </c>
       <c r="CS24" s="89">
-        <v>103702451.95704997</v>
+        <v>109073113.03704999</v>
       </c>
       <c r="CT24" s="17"/>
       <c r="CU24" s="7"/>
@@ -12951,7 +12948,7 @@
         <v>34.773387422606113</v>
       </c>
       <c r="DH24" s="61">
-        <v>35.693879930157507</v>
+        <v>33.75488822052408</v>
       </c>
       <c r="DI24" s="61"/>
       <c r="DJ24" s="61"/>
@@ -13144,7 +13141,7 @@
         <v>147.95643094517908</v>
       </c>
       <c r="DH25" s="76">
-        <v>215.06856681560535</v>
+        <v>238.87082655720099</v>
       </c>
       <c r="DI25" s="76"/>
       <c r="DJ25" s="76"/>
@@ -13715,7 +13712,7 @@
         <v>83</v>
       </c>
       <c r="BL28" s="43">
-        <v>456506684.75999999</v>
+        <v>481340374.75999999</v>
       </c>
       <c r="BM28" s="14"/>
       <c r="BN28" s="57" t="s">
@@ -13733,7 +13730,7 @@
         <v>83</v>
       </c>
       <c r="BV28" s="43">
-        <v>1332326.3149999995</v>
+        <v>536509354.81500006</v>
       </c>
       <c r="BW28" s="14"/>
       <c r="BX28" s="57" t="s">
@@ -13751,7 +13748,7 @@
         <v>83</v>
       </c>
       <c r="CF28" s="43">
-        <v>146184997.0025</v>
+        <v>161764715.05250001</v>
       </c>
       <c r="CG28" s="14"/>
       <c r="CH28" s="57" t="s">
@@ -13769,7 +13766,7 @@
         <v>83</v>
       </c>
       <c r="CP28" s="43">
-        <v>83297900.475500017</v>
+        <v>92249002.275500014</v>
       </c>
       <c r="CQ28" s="14"/>
       <c r="CR28" s="57" t="s">
@@ -13955,7 +13952,7 @@
         <v>87</v>
       </c>
       <c r="BO29" s="65">
-        <v>15000</v>
+        <v>50000</v>
       </c>
       <c r="BP29" s="17"/>
       <c r="BQ29" s="7"/>
@@ -14042,7 +14039,7 @@
         <v>0.37387923896693659</v>
       </c>
       <c r="DH29" s="71">
-        <v>0.52982714467976855</v>
+        <v>0.53463571523513731</v>
       </c>
       <c r="DI29" s="71"/>
       <c r="DJ29" s="71"/>
@@ -14188,7 +14185,7 @@
         <v>90</v>
       </c>
       <c r="BO30" s="58">
-        <v>15000</v>
+        <v>50000</v>
       </c>
       <c r="BP30" s="17"/>
       <c r="BQ30" s="7"/>
@@ -14414,14 +14411,14 @@
         <v>92</v>
       </c>
       <c r="BL31" s="73">
-        <v>456373735.63499999</v>
+        <v>481207425.63499999</v>
       </c>
       <c r="BM31" s="14"/>
       <c r="BN31" s="44" t="s">
         <v>93</v>
       </c>
       <c r="BO31" s="65">
-        <v>2518750</v>
+        <v>2553750</v>
       </c>
       <c r="BP31" s="17"/>
       <c r="BQ31" s="7"/>
@@ -14432,7 +14429,7 @@
         <v>92</v>
       </c>
       <c r="BV31" s="73">
-        <v>1278164.3149999995</v>
+        <v>536455192.81500006</v>
       </c>
       <c r="BW31" s="14"/>
       <c r="BX31" s="44" t="s">
@@ -14450,7 +14447,7 @@
         <v>92</v>
       </c>
       <c r="CF31" s="73">
-        <v>146125525.0025</v>
+        <v>161705243.05250001</v>
       </c>
       <c r="CG31" s="14"/>
       <c r="CH31" s="44" t="s">
@@ -14468,7 +14465,7 @@
         <v>92</v>
       </c>
       <c r="CP31" s="73">
-        <v>83238428.475500017</v>
+        <v>92189530.275500014</v>
       </c>
       <c r="CQ31" s="14"/>
       <c r="CR31" s="44" t="s">
@@ -14625,7 +14622,7 @@
         <v>95</v>
       </c>
       <c r="BL32" s="56">
-        <v>182549494.25400001</v>
+        <v>192482970.25400001</v>
       </c>
       <c r="BM32" s="14"/>
       <c r="BN32" s="97"/>
@@ -14639,7 +14636,7 @@
         <v>95</v>
       </c>
       <c r="BV32" s="56">
-        <v>511265.72599999979</v>
+        <v>214582077.12600005</v>
       </c>
       <c r="BW32" s="14"/>
       <c r="BX32" s="97"/>
@@ -14653,7 +14650,7 @@
         <v>95</v>
       </c>
       <c r="CF32" s="56">
-        <v>58450210.001000002</v>
+        <v>64682097.221000008</v>
       </c>
       <c r="CG32" s="14"/>
       <c r="CH32" s="97"/>
@@ -14667,7 +14664,7 @@
         <v>95</v>
       </c>
       <c r="CP32" s="56">
-        <v>33295371.390200008</v>
+        <v>36875812.11020001</v>
       </c>
       <c r="CQ32" s="14"/>
       <c r="CR32" s="97"/>
@@ -14842,14 +14839,14 @@
         <v>97</v>
       </c>
       <c r="BL33" s="99">
-        <v>273824241.38099998</v>
+        <v>288724455.38099998</v>
       </c>
       <c r="BM33" s="14"/>
       <c r="BN33" s="44" t="s">
         <v>98</v>
       </c>
       <c r="BO33" s="65">
-        <v>365670823.61624998</v>
+        <v>380821037.61624998</v>
       </c>
       <c r="BP33" s="17"/>
       <c r="BQ33" s="7"/>
@@ -14860,14 +14857,14 @@
         <v>97</v>
       </c>
       <c r="BV33" s="99">
-        <v>766898.58899999969</v>
+        <v>321873115.68900001</v>
       </c>
       <c r="BW33" s="14"/>
       <c r="BX33" s="44" t="s">
         <v>98</v>
       </c>
       <c r="BY33" s="65">
-        <v>85135350.966499999</v>
+        <v>406241568.06650001</v>
       </c>
       <c r="BZ33" s="17"/>
       <c r="CA33" s="7"/>
@@ -14878,14 +14875,14 @@
         <v>97</v>
       </c>
       <c r="CF33" s="99">
-        <v>87675315.001499996</v>
+        <v>97023145.831499994</v>
       </c>
       <c r="CG33" s="14"/>
       <c r="CH33" s="44" t="s">
         <v>98</v>
       </c>
       <c r="CI33" s="65">
-        <v>138512728.52420235</v>
+        <v>147860559.35420233</v>
       </c>
       <c r="CJ33" s="17"/>
       <c r="CK33" s="7"/>
@@ -14896,14 +14893,14 @@
         <v>97</v>
       </c>
       <c r="CP33" s="99">
-        <v>49943057.085300013</v>
+        <v>55313718.165300004</v>
       </c>
       <c r="CQ33" s="14"/>
       <c r="CR33" s="44" t="s">
         <v>98</v>
       </c>
       <c r="CS33" s="65">
-        <v>102561401.95705003</v>
+        <v>107932063.03705001</v>
       </c>
       <c r="CT33" s="17"/>
       <c r="CU33" s="7"/>
@@ -15469,14 +15466,14 @@
         <v>105</v>
       </c>
       <c r="BL36" s="101">
-        <v>139469120.00000003</v>
+        <v>146809600.00000003</v>
       </c>
       <c r="BM36" s="14"/>
       <c r="BN36" s="57" t="s">
         <v>106</v>
       </c>
       <c r="BO36" s="66">
-        <v>364495823.61624998</v>
+        <v>379646037.61624998</v>
       </c>
       <c r="BP36" s="17"/>
       <c r="BQ36" s="7"/>
@@ -15487,14 +15484,14 @@
         <v>105</v>
       </c>
       <c r="BV36" s="101">
-        <v>3670240.0000000005</v>
+        <v>163747282.00000003</v>
       </c>
       <c r="BW36" s="14"/>
       <c r="BX36" s="57" t="s">
         <v>106</v>
       </c>
       <c r="BY36" s="66">
-        <v>83960350.966499999</v>
+        <v>405066568.06650001</v>
       </c>
       <c r="BZ36" s="17"/>
       <c r="CA36" s="7"/>
@@ -15505,14 +15502,14 @@
         <v>105</v>
       </c>
       <c r="CF36" s="101">
-        <v>44675329.400000006</v>
+        <v>49333183.250000007</v>
       </c>
       <c r="CG36" s="14"/>
       <c r="CH36" s="57" t="s">
         <v>106</v>
       </c>
       <c r="CI36" s="66">
-        <v>137337728.52420235</v>
+        <v>146685559.35420233</v>
       </c>
       <c r="CJ36" s="17"/>
       <c r="CK36" s="7"/>
@@ -15523,14 +15520,14 @@
         <v>105</v>
       </c>
       <c r="CP36" s="101">
-        <v>25868991.800000004</v>
+        <v>28545094.400000002</v>
       </c>
       <c r="CQ36" s="14"/>
       <c r="CR36" s="57" t="s">
         <v>106</v>
       </c>
       <c r="CS36" s="66">
-        <v>101386401.95705003</v>
+        <v>106757063.03705001</v>
       </c>
       <c r="CT36" s="17"/>
       <c r="CU36" s="7"/>
@@ -15678,7 +15675,7 @@
         <v>108</v>
       </c>
       <c r="BL37" s="101">
-        <v>204981040</v>
+        <v>213966800</v>
       </c>
       <c r="BM37" s="14"/>
       <c r="BN37" s="57"/>
@@ -15692,7 +15689,7 @@
         <v>108</v>
       </c>
       <c r="BV37" s="101">
-        <v>38978992.5</v>
+        <v>234935371.5</v>
       </c>
       <c r="BW37" s="14"/>
       <c r="BX37" s="57"/>
@@ -15706,7 +15703,7 @@
         <v>108</v>
       </c>
       <c r="CF37" s="101">
-        <v>68180588.799999997</v>
+        <v>73882444.375</v>
       </c>
       <c r="CG37" s="14"/>
       <c r="CH37" s="57"/>
@@ -15720,7 +15717,7 @@
         <v>108</v>
       </c>
       <c r="CP37" s="101">
-        <v>43885187.599999994</v>
+        <v>47161106.299999997</v>
       </c>
       <c r="CQ37" s="14"/>
       <c r="CR37" s="57"/>
@@ -15895,14 +15892,14 @@
         <v>110</v>
       </c>
       <c r="BL38" s="106">
-        <v>344450160</v>
+        <v>360776400</v>
       </c>
       <c r="BM38" s="14"/>
       <c r="BN38" s="88" t="s">
         <v>111</v>
       </c>
       <c r="BO38" s="89">
-        <v>368189573.61624998</v>
+        <v>383374787.61624998</v>
       </c>
       <c r="BP38" s="17"/>
       <c r="BQ38" s="7"/>
@@ -15913,14 +15910,14 @@
         <v>110</v>
       </c>
       <c r="BV38" s="106">
-        <v>42649232.5</v>
+        <v>398682653.5</v>
       </c>
       <c r="BW38" s="14"/>
       <c r="BX38" s="88" t="s">
         <v>111</v>
       </c>
       <c r="BY38" s="89">
-        <v>86170350.966499999</v>
+        <v>407276568.06650001</v>
       </c>
       <c r="BZ38" s="17"/>
       <c r="CA38" s="7"/>
@@ -15931,14 +15928,14 @@
         <v>110</v>
       </c>
       <c r="CF38" s="106">
-        <v>112855918.2</v>
+        <v>123215627.625</v>
       </c>
       <c r="CG38" s="14"/>
       <c r="CH38" s="88" t="s">
         <v>111</v>
       </c>
       <c r="CI38" s="89">
-        <v>139651778.52420235</v>
+        <v>148999609.35420233</v>
       </c>
       <c r="CJ38" s="17"/>
       <c r="CK38" s="7"/>
@@ -15949,14 +15946,14 @@
         <v>110</v>
       </c>
       <c r="CP38" s="106">
-        <v>69754179.400000006</v>
+        <v>75706200.700000003</v>
       </c>
       <c r="CQ38" s="14"/>
       <c r="CR38" s="88" t="s">
         <v>111</v>
       </c>
       <c r="CS38" s="89">
-        <v>103702451.95705003</v>
+        <v>109073113.03705001</v>
       </c>
       <c r="CT38" s="17"/>
       <c r="CU38" s="7"/>
@@ -16104,7 +16101,7 @@
         <v>41</v>
       </c>
       <c r="BL39" s="101">
-        <v>-3525650</v>
+        <v>-3175400</v>
       </c>
       <c r="BM39" s="14"/>
       <c r="BN39" s="14"/>
@@ -16118,7 +16115,7 @@
         <v>41</v>
       </c>
       <c r="BV39" s="101">
-        <v>-3822650</v>
+        <v>-3877727.4999999995</v>
       </c>
       <c r="BW39" s="14"/>
       <c r="BX39" s="14"/>
@@ -16309,7 +16306,7 @@
         <v>68</v>
       </c>
       <c r="BL40" s="101">
-        <v>-2568000</v>
+        <v>-2287200</v>
       </c>
       <c r="BM40" s="14"/>
       <c r="BN40" s="30" t="s">
@@ -16534,14 +16531,14 @@
         <v>70</v>
       </c>
       <c r="BL41" s="101">
-        <v>-15567240</v>
+        <v>-16326600</v>
       </c>
       <c r="BM41" s="14"/>
       <c r="BN41" s="112" t="s">
         <v>116</v>
       </c>
       <c r="BO41" s="113">
-        <v>6.8001654023195218E-3</v>
+        <v>6.530815486244756E-3</v>
       </c>
       <c r="BP41" s="17"/>
       <c r="BQ41" s="7"/>
@@ -16552,14 +16549,14 @@
         <v>70</v>
       </c>
       <c r="BV41" s="101">
-        <v>-1519080</v>
+        <v>-18276774</v>
       </c>
       <c r="BW41" s="14"/>
       <c r="BX41" s="112" t="s">
         <v>116</v>
       </c>
       <c r="BY41" s="113">
-        <v>1.1837018052723728E-2</v>
+        <v>2.5044406675354194E-3</v>
       </c>
       <c r="BZ41" s="17"/>
       <c r="CA41" s="7"/>
@@ -16570,14 +16567,14 @@
         <v>70</v>
       </c>
       <c r="CF41" s="101">
-        <v>-4932985.8</v>
+        <v>-5414832.75</v>
       </c>
       <c r="CG41" s="14"/>
       <c r="CH41" s="112" t="s">
         <v>116</v>
       </c>
       <c r="CI41" s="113">
-        <v>8.0199479865979539E-3</v>
+        <v>7.5167982309103411E-3</v>
       </c>
       <c r="CJ41" s="17"/>
       <c r="CK41" s="7"/>
@@ -16588,14 +16585,14 @@
         <v>70</v>
       </c>
       <c r="CP41" s="101">
-        <v>-2839002.6</v>
+        <v>-3115840.8</v>
       </c>
       <c r="CQ41" s="14"/>
       <c r="CR41" s="112" t="s">
         <v>116</v>
       </c>
       <c r="CS41" s="113">
-        <v>1.0800130362046464E-2</v>
+        <v>1.0268341746325311E-2</v>
       </c>
       <c r="CT41" s="17"/>
       <c r="CU41" s="7"/>
@@ -16749,14 +16746,14 @@
         <v>61</v>
       </c>
       <c r="BL42" s="101">
-        <v>-160000</v>
+        <v>-475000</v>
       </c>
       <c r="BM42" s="14"/>
       <c r="BN42" s="114" t="s">
         <v>117</v>
       </c>
       <c r="BO42" s="115">
-        <v>147.05524657663506</v>
+        <v>153.12023469445833</v>
       </c>
       <c r="BP42" s="17"/>
       <c r="BQ42" s="7"/>
@@ -16774,7 +16771,7 @@
         <v>117</v>
       </c>
       <c r="BY42" s="115">
-        <v>84.480736241666662</v>
+        <v>399.29075300637254</v>
       </c>
       <c r="BZ42" s="17"/>
       <c r="CA42" s="7"/>
@@ -16792,7 +16789,7 @@
         <v>117</v>
       </c>
       <c r="CI42" s="115">
-        <v>124.68908796803781</v>
+        <v>133.03536549482351</v>
       </c>
       <c r="CJ42" s="17"/>
       <c r="CK42" s="7"/>
@@ -16810,7 +16807,7 @@
         <v>117</v>
       </c>
       <c r="CS42" s="115">
-        <v>92.591474961651755</v>
+        <v>97.386708068794633</v>
       </c>
       <c r="CT42" s="17"/>
       <c r="CU42" s="7"/>
@@ -16843,7 +16840,7 @@
         <v>458100150</v>
       </c>
       <c r="DH42" s="117">
-        <v>2068286648</v>
+        <v>2670877953</v>
       </c>
       <c r="DI42" s="117"/>
       <c r="DJ42" s="117"/>
@@ -16989,7 +16986,7 @@
         <v>119</v>
       </c>
       <c r="BO43" s="115">
-        <v>1.3061966836172632</v>
+        <v>1.3204832877709616</v>
       </c>
       <c r="BP43" s="17"/>
       <c r="BQ43" s="7"/>
@@ -17007,7 +17004,7 @@
         <v>119</v>
       </c>
       <c r="BY43" s="115">
-        <v>0.14687186321105047</v>
+        <v>1.3863940237971284</v>
       </c>
       <c r="BZ43" s="17"/>
       <c r="CA43" s="7"/>
@@ -17025,7 +17022,7 @@
         <v>119</v>
       </c>
       <c r="CI43" s="115">
-        <v>1.1031213610595147</v>
+        <v>1.1417105436538659</v>
       </c>
       <c r="CJ43" s="17"/>
       <c r="CK43" s="7"/>
@@ -17043,7 +17040,7 @@
         <v>119</v>
       </c>
       <c r="CS43" s="115">
-        <v>0.86018621851819888</v>
+        <v>0.90243468128176374</v>
       </c>
       <c r="CT43" s="17"/>
       <c r="CU43" s="7"/>
@@ -17051,7 +17048,7 @@
       <c r="CW43" s="7"/>
       <c r="CX43" s="7"/>
       <c r="CY43" s="95">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="CZ43" s="119" t="s">
         <v>32</v>
@@ -17224,7 +17221,7 @@
         <v>120</v>
       </c>
       <c r="BO44" s="115">
-        <v>3443.5511328111411</v>
+        <v>3630.3420575351661</v>
       </c>
       <c r="BP44" s="17"/>
       <c r="BQ44" s="7"/>
@@ -17242,7 +17239,7 @@
         <v>120</v>
       </c>
       <c r="BY44" s="115">
-        <v>52.779993353273511</v>
+        <v>9933.8225785606155</v>
       </c>
       <c r="BZ44" s="17"/>
       <c r="CA44" s="7"/>
@@ -17260,7 +17257,7 @@
         <v>120</v>
       </c>
       <c r="CI44" s="115">
-        <v>2464.3045752623084</v>
+        <v>2726.2718548224379</v>
       </c>
       <c r="CJ44" s="17"/>
       <c r="CK44" s="7"/>
@@ -17278,7 +17275,7 @@
         <v>120</v>
       </c>
       <c r="CS44" s="115">
-        <v>1407.1560129136403</v>
+        <v>1557.6655266343828</v>
       </c>
       <c r="CT44" s="17"/>
       <c r="CU44" s="7"/>
@@ -17286,7 +17283,7 @@
       <c r="CW44" s="7"/>
       <c r="CX44" s="7"/>
       <c r="CY44" s="95">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CZ44" s="119" t="s">
         <v>36</v>
@@ -17459,7 +17456,7 @@
         <v>122</v>
       </c>
       <c r="BO45" s="115">
-        <v>0.56964283740185639</v>
+        <v>0.57059379840786972</v>
       </c>
       <c r="BP45" s="17"/>
       <c r="BQ45" s="7"/>
@@ -17477,7 +17474,7 @@
         <v>122</v>
       </c>
       <c r="BY45" s="115">
-        <v>6.4875204567003769E-2</v>
+        <v>0.57014021478420629</v>
       </c>
       <c r="BZ45" s="17"/>
       <c r="CA45" s="7"/>
@@ -17495,7 +17492,7 @@
         <v>122</v>
       </c>
       <c r="CI45" s="115">
-        <v>0.56951092632424993</v>
+        <v>0.57069009774744262</v>
       </c>
       <c r="CJ45" s="17"/>
       <c r="CK45" s="7"/>
@@ -17513,7 +17510,7 @@
         <v>122</v>
       </c>
       <c r="CS45" s="115">
-        <v>0.56054497781923618</v>
+        <v>0.56255638614868275</v>
       </c>
       <c r="CT45" s="17"/>
       <c r="CU45" s="7"/>
@@ -17521,7 +17518,7 @@
       <c r="CW45" s="7"/>
       <c r="CX45" s="7"/>
       <c r="CY45" s="95">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="CZ45" s="119" t="s">
         <v>40</v>
@@ -17682,7 +17679,7 @@
         <v>123</v>
       </c>
       <c r="BO46" s="115">
-        <v>0.74406558506063269</v>
+        <v>0.75345957490334514</v>
       </c>
       <c r="BP46" s="17"/>
       <c r="BQ46" s="7"/>
@@ -17700,7 +17697,7 @@
         <v>123</v>
       </c>
       <c r="BY46" s="115">
-        <v>9.5283421709538955E-3</v>
+        <v>0.79043898650323485</v>
       </c>
       <c r="BZ46" s="17"/>
       <c r="CA46" s="7"/>
@@ -17718,7 +17715,7 @@
         <v>123</v>
       </c>
       <c r="CI46" s="115">
-        <v>0.6282396681850716</v>
+        <v>0.65156290175711062</v>
       </c>
       <c r="CJ46" s="17"/>
       <c r="CK46" s="7"/>
@@ -17736,7 +17733,7 @@
         <v>123</v>
       </c>
       <c r="CS46" s="115">
-        <v>0.48217306477969646</v>
+        <v>0.50767039303710726</v>
       </c>
       <c r="CT46" s="17"/>
       <c r="CU46" s="7"/>
@@ -17744,7 +17741,7 @@
       <c r="CW46" s="7"/>
       <c r="CX46" s="7"/>
       <c r="CY46" s="95">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CZ46" s="119" t="s">
         <v>44</v>
@@ -17917,7 +17914,7 @@
         <v>125</v>
       </c>
       <c r="BO47" s="115">
-        <v>233.04190755829785</v>
+        <v>245.72294074978723</v>
       </c>
       <c r="BP47" s="17"/>
       <c r="BQ47" s="7"/>
@@ -17935,7 +17932,7 @@
         <v>125</v>
       </c>
       <c r="BY47" s="115">
-        <v>0.65267965021276564</v>
+        <v>273.93456654382982</v>
       </c>
       <c r="BZ47" s="17"/>
       <c r="CA47" s="7"/>
@@ -17953,7 +17950,7 @@
         <v>125</v>
       </c>
       <c r="CI47" s="115">
-        <v>74.617289362978724</v>
+        <v>82.572890069361691</v>
       </c>
       <c r="CJ47" s="17"/>
       <c r="CK47" s="7"/>
@@ -17971,7 +17968,7 @@
         <v>125</v>
       </c>
       <c r="CS47" s="115">
-        <v>42.504729434297886</v>
+        <v>47.075504821531915</v>
       </c>
       <c r="CT47" s="17"/>
       <c r="CU47" s="7"/>
@@ -18152,7 +18149,7 @@
         <v>127</v>
       </c>
       <c r="BO48" s="121">
-        <v>22.403063938474965</v>
+        <v>22.313407169723767</v>
       </c>
       <c r="BP48" s="17"/>
       <c r="BQ48" s="7"/>
@@ -18170,7 +18167,7 @@
         <v>127</v>
       </c>
       <c r="BY48" s="121">
-        <v>1.5321452104014767E-2</v>
+        <v>20.699274385466992</v>
       </c>
       <c r="BZ48" s="17"/>
       <c r="CA48" s="7"/>
@@ -18188,7 +18185,7 @@
         <v>127</v>
       </c>
       <c r="CI48" s="121">
-        <v>20.298733862446849</v>
+        <v>20.194895600978448</v>
       </c>
       <c r="CJ48" s="17"/>
       <c r="CK48" s="7"/>
@@ -18206,7 +18203,7 @@
         <v>127</v>
       </c>
       <c r="CS48" s="121">
-        <v>19.998284659303554</v>
+        <v>19.899562207407293</v>
       </c>
       <c r="CT48" s="17"/>
       <c r="CU48" s="7"/>
@@ -18214,7 +18211,7 @@
       <c r="CW48" s="7"/>
       <c r="CX48" s="7"/>
       <c r="CY48" s="95">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CZ48" s="119" t="s">
         <v>52</v>
@@ -18387,7 +18384,7 @@
         <v>129</v>
       </c>
       <c r="BO49" s="123">
-        <v>4.0753104409591617E-5</v>
+        <v>0</v>
       </c>
       <c r="BP49" s="17"/>
       <c r="BQ49" s="7"/>
@@ -18405,7 +18402,7 @@
         <v>129</v>
       </c>
       <c r="BY49" s="123">
-        <v>21.276595744680851</v>
+        <v>3.7523227221258932E-5</v>
       </c>
       <c r="BZ49" s="17"/>
       <c r="CA49" s="7"/>
@@ -18449,7 +18446,7 @@
       <c r="CW49" s="7"/>
       <c r="CX49" s="7"/>
       <c r="CY49" s="95">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CZ49" s="119" t="s">
         <v>56</v>
@@ -18476,7 +18473,7 @@
         <v>93840000</v>
       </c>
       <c r="DH49" s="61">
-        <v>480928000</v>
+        <v>506240000</v>
       </c>
       <c r="DI49" s="61"/>
       <c r="DJ49" s="61"/>
@@ -18644,7 +18641,7 @@
       <c r="CW50" s="7"/>
       <c r="CX50" s="7"/>
       <c r="CY50" s="95">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="CZ50" s="119" t="s">
         <v>60</v>
@@ -18671,7 +18668,7 @@
         <v>94482500</v>
       </c>
       <c r="DH50" s="61">
-        <v>12656000</v>
+        <v>564645800</v>
       </c>
       <c r="DI50" s="61"/>
       <c r="DJ50" s="61"/>
@@ -18817,7 +18814,7 @@
         <v>132</v>
       </c>
       <c r="BO51" s="127">
-        <v>368174573.61624998</v>
+        <v>383324787.61624998</v>
       </c>
       <c r="BP51" s="17"/>
       <c r="BQ51" s="7"/>
@@ -18835,7 +18832,7 @@
         <v>132</v>
       </c>
       <c r="BY51" s="127">
-        <v>86155350.966499999</v>
+        <v>407261568.06650001</v>
       </c>
       <c r="BZ51" s="17"/>
       <c r="CA51" s="7"/>
@@ -18853,7 +18850,7 @@
         <v>132</v>
       </c>
       <c r="CI51" s="127">
-        <v>139632728.52420235</v>
+        <v>148980559.35420233</v>
       </c>
       <c r="CJ51" s="17"/>
       <c r="CK51" s="7"/>
@@ -18871,7 +18868,7 @@
         <v>132</v>
       </c>
       <c r="CS51" s="127">
-        <v>103681401.95705003</v>
+        <v>109052063.03705001</v>
       </c>
       <c r="CT51" s="17"/>
       <c r="CU51" s="7"/>
@@ -18879,7 +18876,7 @@
       <c r="CW51" s="7"/>
       <c r="CX51" s="7"/>
       <c r="CY51" s="95">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CZ51" s="119" t="s">
         <v>63</v>
@@ -18906,7 +18903,7 @@
         <v>36963900</v>
       </c>
       <c r="DH51" s="61">
-        <v>154052860</v>
+        <v>170114425</v>
       </c>
       <c r="DI51" s="61"/>
       <c r="DJ51" s="61"/>
@@ -19045,14 +19042,14 @@
         <v>95</v>
       </c>
       <c r="BL52" s="101">
-        <v>-182549494.25400001</v>
+        <v>-192482970.25400001</v>
       </c>
       <c r="BM52" s="14"/>
       <c r="BN52" s="128" t="s">
         <v>133</v>
       </c>
       <c r="BO52" s="129">
-        <v>273574241.38099998</v>
+        <v>288724455.38099998</v>
       </c>
       <c r="BP52" s="17"/>
       <c r="BQ52" s="7"/>
@@ -19063,14 +19060,14 @@
         <v>95</v>
       </c>
       <c r="BV52" s="101">
-        <v>-511265.72599999979</v>
+        <v>-214582077.12600005</v>
       </c>
       <c r="BW52" s="14"/>
       <c r="BX52" s="128" t="s">
         <v>133</v>
       </c>
       <c r="BY52" s="129">
-        <v>516898.58900000155</v>
+        <v>321623115.68900001</v>
       </c>
       <c r="BZ52" s="17"/>
       <c r="CA52" s="7"/>
@@ -19081,14 +19078,14 @@
         <v>95</v>
       </c>
       <c r="CF52" s="101">
-        <v>-58450210.001000002</v>
+        <v>-64682097.221000008</v>
       </c>
       <c r="CG52" s="14"/>
       <c r="CH52" s="128" t="s">
         <v>133</v>
       </c>
       <c r="CI52" s="129">
-        <v>87675315.00150001</v>
+        <v>97023145.831499994</v>
       </c>
       <c r="CJ52" s="17"/>
       <c r="CK52" s="7"/>
@@ -19099,14 +19096,14 @@
         <v>95</v>
       </c>
       <c r="CP52" s="101">
-        <v>-33295371.390200008</v>
+        <v>-36875812.11020001</v>
       </c>
       <c r="CQ52" s="14"/>
       <c r="CR52" s="128" t="s">
         <v>133</v>
       </c>
       <c r="CS52" s="129">
-        <v>49943057.085300021</v>
+        <v>55313718.165300004</v>
       </c>
       <c r="CT52" s="17"/>
       <c r="CU52" s="7"/>
@@ -19114,7 +19111,7 @@
       <c r="CW52" s="7"/>
       <c r="CX52" s="7"/>
       <c r="CY52" s="130">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CZ52" s="131" t="s">
         <v>67</v>
@@ -19141,7 +19138,7 @@
         <v>33473900</v>
       </c>
       <c r="DH52" s="76">
-        <v>89203420</v>
+        <v>98431360</v>
       </c>
       <c r="DI52" s="76"/>
       <c r="DJ52" s="76"/>
@@ -19280,14 +19277,14 @@
         <v>134</v>
       </c>
       <c r="BL53" s="101">
-        <v>-105174.76</v>
+        <v>-408474.76</v>
       </c>
       <c r="BM53" s="14"/>
       <c r="BN53" s="132" t="s">
         <v>135</v>
       </c>
       <c r="BO53" s="133">
-        <v>192011306.85599998</v>
+        <v>201541064.85599998</v>
       </c>
       <c r="BP53" s="17"/>
       <c r="BQ53" s="7"/>
@@ -19305,7 +19302,7 @@
         <v>135</v>
       </c>
       <c r="BY53" s="133">
-        <v>18795335.288999997</v>
+        <v>222327724.98899999</v>
       </c>
       <c r="BZ53" s="17"/>
       <c r="CA53" s="7"/>
@@ -19323,7 +19320,7 @@
         <v>135</v>
       </c>
       <c r="CI53" s="133">
-        <v>62996673.1215</v>
+        <v>68923390.6065</v>
       </c>
       <c r="CJ53" s="17"/>
       <c r="CK53" s="7"/>
@@ -19341,7 +19338,7 @@
         <v>135</v>
       </c>
       <c r="CS53" s="133">
-        <v>38313425.925300002</v>
+        <v>41718535.785300009</v>
       </c>
       <c r="CT53" s="17"/>
       <c r="CU53" s="7"/>
@@ -19495,14 +19492,14 @@
         <v>136</v>
       </c>
       <c r="BL54" s="101">
-        <v>-8734400</v>
+        <v>-6400000</v>
       </c>
       <c r="BM54" s="14"/>
       <c r="BN54" s="137" t="s">
         <v>137</v>
       </c>
       <c r="BO54" s="138">
-        <v>44180328.612229533</v>
+        <v>46307818.923806623</v>
       </c>
       <c r="BP54" s="17"/>
       <c r="BQ54" s="7"/>
@@ -19520,7 +19517,7 @@
         <v>137</v>
       </c>
       <c r="BY54" s="138">
-        <v>10089721.063810827</v>
+        <v>50934635.682459094</v>
       </c>
       <c r="BZ54" s="17"/>
       <c r="CA54" s="7"/>
@@ -19538,7 +19535,7 @@
         <v>137</v>
       </c>
       <c r="CI54" s="138">
-        <v>14852864.02389773</v>
+        <v>16124322.726229396</v>
       </c>
       <c r="CJ54" s="17"/>
       <c r="CK54" s="7"/>
@@ -19556,7 +19553,7 @@
         <v>137</v>
       </c>
       <c r="CS54" s="138">
-        <v>9899172.4296145234</v>
+        <v>10549763.246966116</v>
       </c>
       <c r="CT54" s="17"/>
       <c r="CU54" s="7"/>
@@ -19712,7 +19709,7 @@
         <v>139</v>
       </c>
       <c r="BL55" s="101">
-        <v>-250000</v>
+        <v>0</v>
       </c>
       <c r="BM55" s="14"/>
       <c r="BN55" s="128" t="s">
@@ -20399,14 +20396,14 @@
         <v>144</v>
       </c>
       <c r="BL58" s="106">
-        <v>128246826.62099999</v>
+        <v>136477380.62099999</v>
       </c>
       <c r="BM58" s="14"/>
       <c r="BN58" s="146" t="s">
         <v>26</v>
       </c>
       <c r="BO58" s="147">
-        <v>0.52149999999999996</v>
+        <v>0.52569999999999995</v>
       </c>
       <c r="BP58" s="17"/>
       <c r="BQ58" s="7"/>
@@ -20417,14 +20414,14 @@
         <v>144</v>
       </c>
       <c r="BV58" s="106">
-        <v>21886474.773999996</v>
+        <v>147036312.87399995</v>
       </c>
       <c r="BW58" s="14"/>
       <c r="BX58" s="146" t="s">
         <v>26</v>
       </c>
       <c r="BY58" s="147">
-        <v>0.21809999999999999</v>
+        <v>0.54590000000000005</v>
       </c>
       <c r="BZ58" s="17"/>
       <c r="CA58" s="7"/>
@@ -20435,14 +20432,14 @@
         <v>144</v>
       </c>
       <c r="CF58" s="106">
-        <v>42653397.899000004</v>
+        <v>46299373.153999984</v>
       </c>
       <c r="CG58" s="14"/>
       <c r="CH58" s="146" t="s">
         <v>26</v>
       </c>
       <c r="CI58" s="147">
-        <v>0.4511</v>
+        <v>0.46260000000000001</v>
       </c>
       <c r="CJ58" s="17"/>
       <c r="CK58" s="7"/>
@@ -20453,14 +20450,14 @@
         <v>144</v>
       </c>
       <c r="CP58" s="106">
-        <v>26477848.409799993</v>
+        <v>28572590.789800007</v>
       </c>
       <c r="CQ58" s="14"/>
       <c r="CR58" s="146" t="s">
         <v>26</v>
       </c>
       <c r="CS58" s="147">
-        <v>0.3695</v>
+        <v>0.38250000000000001</v>
       </c>
       <c r="CT58" s="17"/>
       <c r="CU58" s="7"/>
@@ -20872,7 +20869,7 @@
         <v>147</v>
       </c>
       <c r="BO60" s="70">
-        <v>-81562934.525000006</v>
+        <v>-87183390.525000006</v>
       </c>
       <c r="BP60" s="17"/>
       <c r="BQ60" s="7"/>
@@ -20890,7 +20887,7 @@
         <v>147</v>
       </c>
       <c r="BY60" s="70">
-        <v>18278436.699999996</v>
+        <v>-99295390.700000018</v>
       </c>
       <c r="BZ60" s="17"/>
       <c r="CA60" s="7"/>
@@ -20908,7 +20905,7 @@
         <v>147</v>
       </c>
       <c r="CI60" s="70">
-        <v>-24678641.88000001</v>
+        <v>-28099755.224999994</v>
       </c>
       <c r="CJ60" s="17"/>
       <c r="CK60" s="7"/>
@@ -20926,7 +20923,7 @@
         <v>147</v>
       </c>
       <c r="CS60" s="70">
-        <v>-11629631.160000019</v>
+        <v>-13595182.379999995</v>
       </c>
       <c r="CT60" s="17"/>
       <c r="CU60" s="7"/>
@@ -21105,7 +21102,7 @@
         <v>24</v>
       </c>
       <c r="BO61" s="150">
-        <v>165294435.86805677</v>
+        <v>173706189.82213178</v>
       </c>
       <c r="BP61" s="17"/>
       <c r="BQ61" s="7"/>
@@ -21123,7 +21120,7 @@
         <v>24</v>
       </c>
       <c r="BY61" s="150">
-        <v>12283075.163054029</v>
+        <v>191563183.09480506</v>
       </c>
       <c r="BZ61" s="17"/>
       <c r="CA61" s="7"/>
@@ -21141,7 +21138,7 @@
         <v>24</v>
       </c>
       <c r="CI61" s="150">
-        <v>52454922.011627778</v>
+        <v>57679837.45854973</v>
       </c>
       <c r="CJ61" s="17"/>
       <c r="CK61" s="7"/>
@@ -21159,7 +21156,7 @@
         <v>24</v>
       </c>
       <c r="CS61" s="150">
-        <v>30503701.676191162</v>
+        <v>33501459.786009867</v>
       </c>
       <c r="CT61" s="17"/>
       <c r="CU61" s="7"/>
@@ -21192,7 +21189,7 @@
         <v>1500</v>
       </c>
       <c r="DH61" s="61">
-        <v>3800</v>
+        <v>4000</v>
       </c>
       <c r="DI61" s="61"/>
       <c r="DJ61" s="61"/>
@@ -21331,14 +21328,14 @@
         <v>149</v>
       </c>
       <c r="BL62" s="152">
-        <v>128246826.62099999</v>
+        <v>136477380.62099999</v>
       </c>
       <c r="BM62" s="14"/>
       <c r="BN62" s="153" t="s">
         <v>150</v>
       </c>
       <c r="BO62" s="65">
-        <v>6134501987.5629444</v>
+        <v>6442426332.772995</v>
       </c>
       <c r="BP62" s="17"/>
       <c r="BQ62" s="7"/>
@@ -21349,14 +21346,14 @@
         <v>149</v>
       </c>
       <c r="BV62" s="152">
-        <v>21886474.773999996</v>
+        <v>147036312.87399995</v>
       </c>
       <c r="BW62" s="14"/>
       <c r="BX62" s="153" t="s">
         <v>150</v>
       </c>
       <c r="BY62" s="65">
-        <v>-3839155431.8626542</v>
+        <v>6662539938.9517727</v>
       </c>
       <c r="BZ62" s="17"/>
       <c r="CA62" s="7"/>
@@ -21367,14 +21364,14 @@
         <v>149</v>
       </c>
       <c r="CF62" s="152">
-        <v>42653397.899000004</v>
+        <v>46299373.153999984</v>
       </c>
       <c r="CG62" s="14"/>
       <c r="CH62" s="153" t="s">
         <v>150</v>
       </c>
       <c r="CI62" s="65">
-        <v>1779697885.5216422</v>
+        <v>1959372300.9456496</v>
       </c>
       <c r="CJ62" s="17"/>
       <c r="CK62" s="7"/>
@@ -21385,14 +21382,14 @@
         <v>149</v>
       </c>
       <c r="CP62" s="152">
-        <v>26477848.409799993</v>
+        <v>28572590.789800007</v>
       </c>
       <c r="CQ62" s="14"/>
       <c r="CR62" s="153" t="s">
         <v>150</v>
       </c>
       <c r="CS62" s="65">
-        <v>998775472.34767699</v>
+        <v>1100718775.5533822</v>
       </c>
       <c r="CT62" s="17"/>
       <c r="CU62" s="154"/>
@@ -21425,7 +21422,7 @@
         <v>1750</v>
       </c>
       <c r="DH62" s="61">
-        <v>100</v>
+        <v>3800</v>
       </c>
       <c r="DI62" s="61"/>
       <c r="DJ62" s="61"/>
@@ -21571,7 +21568,7 @@
         <v>152</v>
       </c>
       <c r="BO63" s="158">
-        <v>6137005737.5629444</v>
+        <v>6444930082.772995</v>
       </c>
       <c r="BP63" s="17"/>
       <c r="BQ63" s="7"/>
@@ -21589,7 +21586,7 @@
         <v>152</v>
       </c>
       <c r="BY63" s="158">
-        <v>-3838135431.8626542</v>
+        <v>6663559938.9517727</v>
       </c>
       <c r="BZ63" s="17"/>
       <c r="CA63" s="7"/>
@@ -21607,7 +21604,7 @@
         <v>152</v>
       </c>
       <c r="CI63" s="158">
-        <v>1780817885.5216422</v>
+        <v>1960492300.9456496</v>
       </c>
       <c r="CJ63" s="17"/>
       <c r="CK63" s="7"/>
@@ -21625,7 +21622,7 @@
         <v>152</v>
       </c>
       <c r="CS63" s="158">
-        <v>999895472.34767699</v>
+        <v>1101838775.5533822</v>
       </c>
       <c r="CT63" s="17"/>
       <c r="CU63" s="7"/>
@@ -21658,7 +21655,7 @@
         <v>1675</v>
       </c>
       <c r="DH63" s="61">
-        <v>4460</v>
+        <v>4925</v>
       </c>
       <c r="DI63" s="61"/>
       <c r="DJ63" s="61"/>
@@ -21797,14 +21794,14 @@
         <v>153</v>
       </c>
       <c r="BL64" s="106">
-        <v>174816306.45625001</v>
+        <v>183046860.45625001</v>
       </c>
       <c r="BM64" s="14"/>
       <c r="BN64" s="159" t="s">
         <v>154</v>
       </c>
       <c r="BO64" s="160">
-        <v>6137005737.5629444</v>
+        <v>6444930082.772995</v>
       </c>
       <c r="BP64" s="17"/>
       <c r="BQ64" s="7"/>
@@ -21815,14 +21812,14 @@
         <v>153</v>
       </c>
       <c r="BV64" s="106">
-        <v>57090377.8015</v>
+        <v>182240215.90149996</v>
       </c>
       <c r="BW64" s="14"/>
       <c r="BX64" s="159" t="s">
         <v>154</v>
       </c>
       <c r="BY64" s="160">
-        <v>-3838135431.8626542</v>
+        <v>6663559938.9517727</v>
       </c>
       <c r="BZ64" s="17"/>
       <c r="CA64" s="7"/>
@@ -21833,14 +21830,14 @@
         <v>153</v>
       </c>
       <c r="CF64" s="106">
-        <v>76710390.946702331</v>
+        <v>80356366.201702327</v>
       </c>
       <c r="CG64" s="14"/>
       <c r="CH64" s="159" t="s">
         <v>154</v>
       </c>
       <c r="CI64" s="160">
-        <v>1780817885.5216422</v>
+        <v>1960492300.9456496</v>
       </c>
       <c r="CJ64" s="17"/>
       <c r="CK64" s="7"/>
@@ -21851,14 +21848,14 @@
         <v>153</v>
       </c>
       <c r="CP64" s="106">
-        <v>63427400.536549993</v>
+        <v>65522142.91655001</v>
       </c>
       <c r="CQ64" s="14"/>
       <c r="CR64" s="159" t="s">
         <v>154</v>
       </c>
       <c r="CS64" s="160">
-        <v>999895472.34767699</v>
+        <v>1101838775.5533822</v>
       </c>
       <c r="CT64" s="17"/>
       <c r="CU64" s="7"/>
@@ -21891,7 +21888,7 @@
         <v>1850</v>
       </c>
       <c r="DH64" s="76">
-        <v>4930</v>
+        <v>5440</v>
       </c>
       <c r="DI64" s="76"/>
       <c r="DJ64" s="76"/>
@@ -22198,7 +22195,7 @@
         <v>157</v>
       </c>
       <c r="BO66" s="129">
-        <v>5220.852755372719</v>
+        <v>5482.9160278919107</v>
       </c>
       <c r="BP66" s="161"/>
       <c r="BQ66" s="7"/>
@@ -22214,7 +22211,7 @@
         <v>157</v>
       </c>
       <c r="BY66" s="129">
-        <v>0.01</v>
+        <v>5670.2467565547004</v>
       </c>
       <c r="BZ66" s="161"/>
       <c r="CA66" s="7"/>
@@ -22230,7 +22227,7 @@
         <v>157</v>
       </c>
       <c r="CI66" s="129">
-        <v>1514.6364983162912</v>
+        <v>1667.5508944218295</v>
       </c>
       <c r="CJ66" s="161"/>
       <c r="CK66" s="7"/>
@@ -22246,7 +22243,7 @@
         <v>157</v>
       </c>
       <c r="CS66" s="129">
-        <v>850.02167859376766</v>
+        <v>936.78193664117634</v>
       </c>
       <c r="CT66" s="161"/>
       <c r="CU66" s="7"/>
@@ -22418,7 +22415,7 @@
         <v>159</v>
       </c>
       <c r="BL67" s="165">
-        <v>3800</v>
+        <v>4000</v>
       </c>
       <c r="BM67" s="14"/>
       <c r="BN67" s="128" t="s">
@@ -22436,7 +22433,7 @@
         <v>159</v>
       </c>
       <c r="BV67" s="165">
-        <v>100</v>
+        <v>3800</v>
       </c>
       <c r="BW67" s="14"/>
       <c r="BX67" s="128" t="s">
@@ -22454,7 +22451,7 @@
         <v>159</v>
       </c>
       <c r="CF67" s="165">
-        <v>4460</v>
+        <v>4925</v>
       </c>
       <c r="CG67" s="14"/>
       <c r="CH67" s="128" t="s">
@@ -22472,7 +22469,7 @@
         <v>159</v>
       </c>
       <c r="CP67" s="165">
-        <v>4930</v>
+        <v>5440</v>
       </c>
       <c r="CQ67" s="14"/>
       <c r="CR67" s="128" t="s">
@@ -22514,7 +22511,7 @@
         <v>8.6224905548559147E-2</v>
       </c>
       <c r="DH67" s="71">
-        <v>5.7261053048341649E-2</v>
+        <v>5.5018505416522971E-2</v>
       </c>
       <c r="DI67" s="71"/>
       <c r="DJ67" s="71"/>
@@ -22653,7 +22650,7 @@
         <v>61</v>
       </c>
       <c r="BL68" s="168">
-        <v>150000</v>
+        <v>500000</v>
       </c>
       <c r="BM68" s="14"/>
       <c r="BN68" s="169" t="s">
@@ -22749,7 +22746,7 @@
         <v>5.5189273279502182E-2</v>
       </c>
       <c r="DH68" s="71">
-        <v>5.2561761457298427E-2</v>
+        <v>5.0503254891225126E-2</v>
       </c>
       <c r="DI68" s="71"/>
       <c r="DJ68" s="71"/>
@@ -22888,7 +22885,7 @@
         <v>162</v>
       </c>
       <c r="BL69" s="168">
-        <v>150000</v>
+        <v>453300</v>
       </c>
       <c r="BM69" s="14"/>
       <c r="BN69" s="171" t="s">
@@ -22984,7 +22981,7 @@
         <v>2.5575968590265945E-2</v>
       </c>
       <c r="DH69" s="71">
-        <v>4.6252869990582916E-2</v>
+        <v>4.4441442178128412E-2</v>
       </c>
       <c r="DI69" s="71"/>
       <c r="DJ69" s="71"/>
@@ -23129,7 +23126,7 @@
         <v>164</v>
       </c>
       <c r="BV70" s="168">
-        <v>126560</v>
+        <v>148591</v>
       </c>
       <c r="BW70" s="14"/>
       <c r="BX70" s="173" t="s">
@@ -23207,7 +23204,7 @@
         <v>0.12207570931180087</v>
       </c>
       <c r="DH70" s="71">
-        <v>0.11783196147320942</v>
+        <v>0.11321724043531281</v>
       </c>
       <c r="DI70" s="71"/>
       <c r="DJ70" s="71"/>
@@ -23346,14 +23343,14 @@
         <v>166</v>
       </c>
       <c r="BL71" s="168">
-        <v>10000000</v>
+        <v>7665600</v>
       </c>
       <c r="BM71" s="14"/>
       <c r="BN71" s="175" t="s">
         <v>167</v>
       </c>
       <c r="BO71" s="176">
-        <v>275371867.71218747</v>
+        <v>286734528.21218747</v>
       </c>
       <c r="BP71" s="17"/>
       <c r="BQ71" s="7"/>
@@ -23371,7 +23368,7 @@
         <v>167</v>
       </c>
       <c r="BY71" s="176">
-        <v>64970263.224875003</v>
+        <v>305799926.04987502</v>
       </c>
       <c r="BZ71" s="17"/>
       <c r="CA71" s="7"/>
@@ -23389,7 +23386,7 @@
         <v>167</v>
       </c>
       <c r="CI71" s="176">
-        <v>105003296.39315176</v>
+        <v>112014169.51565175</v>
       </c>
       <c r="CJ71" s="17"/>
       <c r="CK71" s="7"/>
@@ -23407,7 +23404,7 @@
         <v>167</v>
       </c>
       <c r="CS71" s="176">
-        <v>78039801.467787519</v>
+        <v>82067797.277787507</v>
       </c>
       <c r="CT71" s="17"/>
       <c r="CU71" s="7"/>
@@ -23442,7 +23439,7 @@
         <v>7.1212682420920062E-2</v>
       </c>
       <c r="DH71" s="71">
-        <v>8.7515980366581744E-2</v>
+        <v>8.4088541574080328E-2</v>
       </c>
       <c r="DI71" s="71"/>
       <c r="DJ71" s="71"/>
@@ -23677,7 +23674,7 @@
         <v>5.9263649159196977E-2</v>
       </c>
       <c r="DH72" s="71">
-        <v>7.2894523105158676E-2</v>
+        <v>7.0039712872730378E-2</v>
       </c>
       <c r="DI72" s="71"/>
       <c r="DJ72" s="71"/>
@@ -23816,7 +23813,7 @@
         <v>170</v>
       </c>
       <c r="BL73" s="168">
-        <v>250000</v>
+        <v>0</v>
       </c>
       <c r="BM73" s="14"/>
       <c r="BN73" s="30" t="s">
@@ -23885,7 +23882,7 @@
       <c r="CW73" s="7"/>
       <c r="CX73" s="7"/>
       <c r="CY73" s="95">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CZ73" s="119" t="s">
         <v>56</v>
@@ -23912,7 +23909,7 @@
         <v>0.23172086821246018</v>
       </c>
       <c r="DH73" s="71">
-        <v>0.23415052904032696</v>
+        <v>0.22498035688255727</v>
       </c>
       <c r="DI73" s="71"/>
       <c r="DJ73" s="71"/>
@@ -24107,7 +24104,7 @@
         <v>0.19997777613156531</v>
       </c>
       <c r="DH74" s="71">
-        <v>0.23415052904032696</v>
+        <v>0.26414393338761116</v>
       </c>
       <c r="DI74" s="71"/>
       <c r="DJ74" s="71"/>
@@ -24302,7 +24299,7 @@
         <v>8.1739388102822427E-2</v>
       </c>
       <c r="DH75" s="71">
-        <v>6.3904815293788983E-2</v>
+        <v>6.1402074170989335E-2</v>
       </c>
       <c r="DI75" s="71"/>
       <c r="DJ75" s="71"/>
@@ -24517,7 +24514,7 @@
         <v>6.7019779242906877E-2</v>
       </c>
       <c r="DH76" s="185">
-        <v>3.347597718438429E-2</v>
+        <v>3.2164938190842221E-2</v>
       </c>
       <c r="DI76" s="185"/>
       <c r="DJ76" s="185"/>
@@ -24967,7 +24964,7 @@
         <v>88</v>
       </c>
       <c r="G79" s="190">
-        <v>0.52982714467976855</v>
+        <v>0.53463571523513731</v>
       </c>
       <c r="H79" s="17"/>
       <c r="I79" s="7"/>
@@ -24985,7 +24982,7 @@
         <v>88</v>
       </c>
       <c r="Q79" s="190">
-        <v>0.52982714467976855</v>
+        <v>0.53463571523513731</v>
       </c>
       <c r="R79" s="17"/>
       <c r="S79" s="7"/>
@@ -25003,7 +25000,7 @@
         <v>88</v>
       </c>
       <c r="AA79" s="190">
-        <v>0.52982714467976855</v>
+        <v>0.53463571523513731</v>
       </c>
       <c r="AB79" s="17"/>
       <c r="AC79" s="7"/>
@@ -25021,7 +25018,7 @@
         <v>88</v>
       </c>
       <c r="AK79" s="190">
-        <v>0.52982714467976855</v>
+        <v>0.53463571523513731</v>
       </c>
       <c r="AL79" s="17"/>
       <c r="AM79" s="7"/>
@@ -25039,7 +25036,7 @@
         <v>88</v>
       </c>
       <c r="AU79" s="190">
-        <v>0.52982714467976855</v>
+        <v>0.53463571523513731</v>
       </c>
       <c r="AV79" s="17"/>
       <c r="AW79" s="7"/>
@@ -25057,7 +25054,7 @@
         <v>88</v>
       </c>
       <c r="BE79" s="190">
-        <v>0.52982714467976855</v>
+        <v>0.53463571523513731</v>
       </c>
       <c r="BF79" s="17"/>
       <c r="BG79" s="7"/>
@@ -25075,7 +25072,7 @@
         <v>88</v>
       </c>
       <c r="BO79" s="190">
-        <v>0.52982714467976855</v>
+        <v>0.53463571523513731</v>
       </c>
       <c r="BP79" s="17"/>
       <c r="BQ79" s="7"/>
@@ -25093,7 +25090,7 @@
         <v>88</v>
       </c>
       <c r="BY79" s="190">
-        <v>0.52982714467976855</v>
+        <v>0.53463571523513731</v>
       </c>
       <c r="BZ79" s="17"/>
       <c r="CA79" s="7"/>
@@ -25111,7 +25108,7 @@
         <v>88</v>
       </c>
       <c r="CI79" s="190">
-        <v>0.52982714467976855</v>
+        <v>0.53463571523513731</v>
       </c>
       <c r="CJ79" s="17"/>
       <c r="CK79" s="7"/>
@@ -25129,7 +25126,7 @@
         <v>88</v>
       </c>
       <c r="CS79" s="190">
-        <v>0.52982714467976855</v>
+        <v>0.53463571523513731</v>
       </c>
       <c r="CT79" s="17"/>
       <c r="CU79" s="7"/>
@@ -25137,7 +25134,7 @@
       <c r="CW79" s="7"/>
       <c r="CX79" s="7"/>
       <c r="CY79" s="95">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="CZ79" s="119" t="s">
         <v>32</v>
@@ -25292,7 +25289,7 @@
       <c r="CW80" s="7"/>
       <c r="CX80" s="7"/>
       <c r="CY80" s="95">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="CZ80" s="119" t="s">
         <v>36</v>
@@ -25507,7 +25504,7 @@
       <c r="CW81" s="7"/>
       <c r="CX81" s="7"/>
       <c r="CY81" s="95">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CZ81" s="119" t="s">
         <v>40</v>
@@ -25661,14 +25658,14 @@
         <v>133</v>
       </c>
       <c r="BL82" s="196">
-        <v>87344</v>
+        <v>64000</v>
       </c>
       <c r="BM82" s="14"/>
       <c r="BN82" s="197" t="s">
         <v>191</v>
       </c>
       <c r="BO82" s="198">
-        <v>7928.2409585325786</v>
+        <v>8327.1590545664549</v>
       </c>
       <c r="BP82" s="17"/>
       <c r="BQ82" s="7"/>
@@ -25686,7 +25683,7 @@
         <v>191</v>
       </c>
       <c r="BY82" s="198">
-        <v>-3654.2426627796626</v>
+        <v>8955.0638041169805</v>
       </c>
       <c r="BZ82" s="17"/>
       <c r="CA82" s="7"/>
@@ -25704,7 +25701,7 @@
         <v>191</v>
       </c>
       <c r="CI82" s="198">
-        <v>2423.3127808581899</v>
+        <v>2663.5826282782027</v>
       </c>
       <c r="CJ82" s="17"/>
       <c r="CK82" s="7"/>
@@ -25722,7 +25719,7 @@
         <v>191</v>
       </c>
       <c r="CS82" s="198">
-        <v>1390.4633950350797</v>
+        <v>1527.1795124461146</v>
       </c>
       <c r="CT82" s="17"/>
       <c r="CU82" s="7"/>
@@ -25730,7 +25727,7 @@
       <c r="CW82" s="7"/>
       <c r="CX82" s="7"/>
       <c r="CY82" s="95">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CZ82" s="119" t="s">
         <v>44</v>
@@ -25896,7 +25893,7 @@
         <v>192</v>
       </c>
       <c r="BL83" s="199">
-        <v>213904</v>
+        <v>190560</v>
       </c>
       <c r="BM83" s="14"/>
       <c r="BN83" s="200" t="s">
@@ -25921,7 +25918,7 @@
         <v>193</v>
       </c>
       <c r="BY83" s="201" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="BZ83" s="17"/>
       <c r="CA83" s="7"/>
@@ -26149,14 +26146,14 @@
         <v>164</v>
       </c>
       <c r="BV84" s="196">
-        <v>126560</v>
+        <v>148591</v>
       </c>
       <c r="BW84" s="14"/>
       <c r="BX84" s="197" t="s">
         <v>163</v>
       </c>
       <c r="BY84" s="190">
-        <v>0.16620000000000001</v>
+        <v>5.3699999999999998E-2</v>
       </c>
       <c r="BZ84" s="17"/>
       <c r="CA84" s="7"/>
@@ -26200,7 +26197,7 @@
       <c r="CW84" s="7"/>
       <c r="CX84" s="7"/>
       <c r="CY84" s="95">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CZ84" s="119" t="s">
         <v>52</v>
@@ -26255,7 +26252,7 @@
     <row r="85" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B85" s="12"/>
       <c r="C85" s="167" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D85" s="196">
         <v>0</v>
@@ -26269,7 +26266,7 @@
       <c r="K85" s="7"/>
       <c r="L85" s="12"/>
       <c r="M85" s="167" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="N85" s="196">
         <v>0</v>
@@ -26283,7 +26280,7 @@
       <c r="U85" s="7"/>
       <c r="V85" s="12"/>
       <c r="W85" s="167" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="X85" s="196">
         <v>0</v>
@@ -26297,7 +26294,7 @@
       <c r="AE85" s="7"/>
       <c r="AF85" s="12"/>
       <c r="AG85" s="167" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AH85" s="196">
         <v>0</v>
@@ -26311,7 +26308,7 @@
       <c r="AO85" s="7"/>
       <c r="AP85" s="12"/>
       <c r="AQ85" s="167" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AR85" s="196">
         <v>0</v>
@@ -26325,7 +26322,7 @@
       <c r="AY85" s="7"/>
       <c r="AZ85" s="12"/>
       <c r="BA85" s="167" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="BB85" s="196">
         <v>0</v>
@@ -26339,7 +26336,7 @@
       <c r="BI85" s="7"/>
       <c r="BJ85" s="12"/>
       <c r="BK85" s="167" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="BL85" s="196">
         <v>0</v>
@@ -26353,7 +26350,7 @@
       <c r="BS85" s="7"/>
       <c r="BT85" s="12"/>
       <c r="BU85" s="167" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="BV85" s="196">
         <v>0</v>
@@ -26367,7 +26364,7 @@
       <c r="CC85" s="7"/>
       <c r="CD85" s="12"/>
       <c r="CE85" s="167" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="CF85" s="196">
         <v>0</v>
@@ -26381,7 +26378,7 @@
       <c r="CM85" s="7"/>
       <c r="CN85" s="12"/>
       <c r="CO85" s="167" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="CP85" s="196">
         <v>0</v>
@@ -26395,7 +26392,7 @@
       <c r="CW85" s="7"/>
       <c r="CX85" s="7"/>
       <c r="CY85" s="95">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CZ85" s="119" t="s">
         <v>56</v>
@@ -26422,7 +26419,7 @@
         <v>35737175.877062149</v>
       </c>
       <c r="DH85" s="61">
-        <v>165294435.86805677</v>
+        <v>173706189.82213178</v>
       </c>
       <c r="DI85" s="61"/>
       <c r="DJ85" s="61"/>
@@ -26450,10 +26447,10 @@
     <row r="86" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B86" s="12"/>
       <c r="C86" s="167" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D86" s="196">
-        <v>1790753</v>
+        <v>2244088</v>
       </c>
       <c r="E86" s="14"/>
       <c r="F86" s="187" t="s">
@@ -26466,10 +26463,10 @@
       <c r="K86" s="7"/>
       <c r="L86" s="12"/>
       <c r="M86" s="167" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="N86" s="196">
-        <v>243525</v>
+        <v>307984</v>
       </c>
       <c r="O86" s="14"/>
       <c r="P86" s="187" t="s">
@@ -26482,10 +26479,10 @@
       <c r="U86" s="7"/>
       <c r="V86" s="12"/>
       <c r="W86" s="167" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="X86" s="196">
-        <v>171891</v>
+        <v>220553</v>
       </c>
       <c r="Y86" s="14"/>
       <c r="Z86" s="187" t="s">
@@ -26498,10 +26495,10 @@
       <c r="AE86" s="7"/>
       <c r="AF86" s="12"/>
       <c r="AG86" s="167" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AH86" s="196">
-        <v>630373</v>
+        <v>790867</v>
       </c>
       <c r="AI86" s="14"/>
       <c r="AJ86" s="187" t="s">
@@ -26514,10 +26511,10 @@
       <c r="AO86" s="7"/>
       <c r="AP86" s="12"/>
       <c r="AQ86" s="167" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AR86" s="196">
-        <v>318789</v>
+        <v>404432</v>
       </c>
       <c r="AS86" s="14"/>
       <c r="AT86" s="187" t="s">
@@ -26530,10 +26527,10 @@
       <c r="AY86" s="7"/>
       <c r="AZ86" s="12"/>
       <c r="BA86" s="167" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="BB86" s="196">
-        <v>446163</v>
+        <v>560165</v>
       </c>
       <c r="BC86" s="14"/>
       <c r="BD86" s="187" t="s">
@@ -26546,10 +26543,10 @@
       <c r="BI86" s="7"/>
       <c r="BJ86" s="12"/>
       <c r="BK86" s="167" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="BL86" s="196">
-        <v>459058</v>
+        <v>1277331</v>
       </c>
       <c r="BM86" s="14"/>
       <c r="BN86" s="187" t="s">
@@ -26562,10 +26559,10 @@
       <c r="BS86" s="7"/>
       <c r="BT86" s="12"/>
       <c r="BU86" s="167" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="BV86" s="196">
-        <v>16064920</v>
+        <v>524371</v>
       </c>
       <c r="BW86" s="14"/>
       <c r="BX86" s="187" t="s">
@@ -26578,10 +26575,10 @@
       <c r="CC86" s="7"/>
       <c r="CD86" s="12"/>
       <c r="CE86" s="167" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="CF86" s="196">
-        <v>283943</v>
+        <v>322324</v>
       </c>
       <c r="CG86" s="14"/>
       <c r="CH86" s="187" t="s">
@@ -26594,10 +26591,10 @@
       <c r="CM86" s="7"/>
       <c r="CN86" s="12"/>
       <c r="CO86" s="167" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="CP86" s="196">
-        <v>299291</v>
+        <v>340008</v>
       </c>
       <c r="CQ86" s="14"/>
       <c r="CR86" s="187" t="s">
@@ -26610,7 +26607,7 @@
       <c r="CW86" s="7"/>
       <c r="CX86" s="7"/>
       <c r="CY86" s="95">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="CZ86" s="119" t="s">
         <v>60</v>
@@ -26637,7 +26634,7 @@
         <v>33972705.695749573</v>
       </c>
       <c r="DH86" s="61">
-        <v>12283075.163054029</v>
+        <v>191563183.09480506</v>
       </c>
       <c r="DI86" s="61"/>
       <c r="DJ86" s="61"/>
@@ -26783,7 +26780,7 @@
         <v>191</v>
       </c>
       <c r="BO87" s="205">
-        <v>7928.2409585325786</v>
+        <v>8327.1590545664549</v>
       </c>
       <c r="BP87" s="17"/>
       <c r="BQ87" s="7"/>
@@ -26794,14 +26791,14 @@
         <v>29</v>
       </c>
       <c r="BV87" s="196">
-        <v>126560</v>
+        <v>148591</v>
       </c>
       <c r="BW87" s="14"/>
       <c r="BX87" s="204" t="s">
         <v>191</v>
       </c>
       <c r="BY87" s="205">
-        <v>-3654.2426627796626</v>
+        <v>8955.0638041169805</v>
       </c>
       <c r="BZ87" s="17"/>
       <c r="CA87" s="7"/>
@@ -26819,7 +26816,7 @@
         <v>191</v>
       </c>
       <c r="CI87" s="205">
-        <v>2423.3127808581899</v>
+        <v>2663.5826282782027</v>
       </c>
       <c r="CJ87" s="17"/>
       <c r="CK87" s="7"/>
@@ -26837,7 +26834,7 @@
         <v>191</v>
       </c>
       <c r="CS87" s="205">
-        <v>1390.4633950350797</v>
+        <v>1527.1795124461146</v>
       </c>
       <c r="CT87" s="17"/>
       <c r="CU87" s="7"/>
@@ -26845,7 +26842,7 @@
       <c r="CW87" s="7"/>
       <c r="CX87" s="7"/>
       <c r="CY87" s="95">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CZ87" s="119" t="s">
         <v>63</v>
@@ -26872,7 +26869,7 @@
         <v>15985415.190259609</v>
       </c>
       <c r="DH87" s="61">
-        <v>52454922.011627778</v>
+        <v>57679837.45854973</v>
       </c>
       <c r="DI87" s="61"/>
       <c r="DJ87" s="61"/>
@@ -26900,10 +26897,10 @@
     <row r="88" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B88" s="12"/>
       <c r="C88" s="181" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D88" s="199">
-        <v>1759803</v>
+        <v>2213138</v>
       </c>
       <c r="E88" s="14"/>
       <c r="F88" s="189" t="s">
@@ -26918,10 +26915,10 @@
       <c r="K88" s="7"/>
       <c r="L88" s="12"/>
       <c r="M88" s="181" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="N88" s="199">
-        <v>215115</v>
+        <v>279574</v>
       </c>
       <c r="O88" s="14"/>
       <c r="P88" s="189" t="s">
@@ -26936,10 +26933,10 @@
       <c r="U88" s="7"/>
       <c r="V88" s="12"/>
       <c r="W88" s="181" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="X88" s="199">
-        <v>146891</v>
+        <v>195553</v>
       </c>
       <c r="Y88" s="14"/>
       <c r="Z88" s="189" t="s">
@@ -26954,10 +26951,10 @@
       <c r="AE88" s="7"/>
       <c r="AF88" s="12"/>
       <c r="AG88" s="181" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AH88" s="199">
-        <v>566684</v>
+        <v>727178</v>
       </c>
       <c r="AI88" s="14"/>
       <c r="AJ88" s="189" t="s">
@@ -26972,10 +26969,10 @@
       <c r="AO88" s="7"/>
       <c r="AP88" s="12"/>
       <c r="AQ88" s="181" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AR88" s="199">
-        <v>271486</v>
+        <v>357129</v>
       </c>
       <c r="AS88" s="14"/>
       <c r="AT88" s="189" t="s">
@@ -26990,10 +26987,10 @@
       <c r="AY88" s="7"/>
       <c r="AZ88" s="12"/>
       <c r="BA88" s="181" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="BB88" s="199">
-        <v>406763</v>
+        <v>520765</v>
       </c>
       <c r="BC88" s="14"/>
       <c r="BD88" s="189" t="s">
@@ -27008,10 +27005,10 @@
       <c r="BI88" s="7"/>
       <c r="BJ88" s="12"/>
       <c r="BK88" s="181" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="BL88" s="199">
-        <v>332498</v>
+        <v>1150771</v>
       </c>
       <c r="BM88" s="14"/>
       <c r="BN88" s="189" t="s">
@@ -27026,17 +27023,17 @@
       <c r="BS88" s="7"/>
       <c r="BT88" s="12"/>
       <c r="BU88" s="181" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="BV88" s="199">
-        <v>15938360</v>
+        <v>375780</v>
       </c>
       <c r="BW88" s="14"/>
       <c r="BX88" s="189" t="s">
         <v>193</v>
       </c>
       <c r="BY88" s="201" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="BZ88" s="17"/>
       <c r="CA88" s="7"/>
@@ -27044,10 +27041,10 @@
       <c r="CC88" s="7"/>
       <c r="CD88" s="12"/>
       <c r="CE88" s="181" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="CF88" s="199">
-        <v>249402</v>
+        <v>287783</v>
       </c>
       <c r="CG88" s="14"/>
       <c r="CH88" s="189" t="s">
@@ -27062,10 +27059,10 @@
       <c r="CM88" s="7"/>
       <c r="CN88" s="12"/>
       <c r="CO88" s="181" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="CP88" s="199">
-        <v>281197</v>
+        <v>321914</v>
       </c>
       <c r="CQ88" s="14"/>
       <c r="CR88" s="189" t="s">
@@ -27080,7 +27077,7 @@
       <c r="CW88" s="7"/>
       <c r="CX88" s="7"/>
       <c r="CY88" s="130">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CZ88" s="131" t="s">
         <v>67</v>
@@ -27107,7 +27104,7 @@
         <v>15347177.370931152</v>
       </c>
       <c r="DH88" s="76">
-        <v>30503701.676191162</v>
+        <v>33501459.786009867</v>
       </c>
       <c r="DI88" s="76"/>
       <c r="DJ88" s="76"/>
@@ -27135,14 +27132,14 @@
     <row r="89" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B89" s="12"/>
       <c r="C89" s="167" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D89" s="206">
         <v>479</v>
       </c>
       <c r="E89" s="14"/>
       <c r="F89" s="189" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G89" s="190">
         <v>5.1200000000000002E-2</v>
@@ -27153,14 +27150,14 @@
       <c r="K89" s="7"/>
       <c r="L89" s="12"/>
       <c r="M89" s="167" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="N89" s="206">
         <v>756</v>
       </c>
       <c r="O89" s="14"/>
       <c r="P89" s="189" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="Q89" s="190">
         <v>5.1200000000000002E-2</v>
@@ -27171,14 +27168,14 @@
       <c r="U89" s="7"/>
       <c r="V89" s="12"/>
       <c r="W89" s="167" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="X89" s="206">
         <v>702</v>
       </c>
       <c r="Y89" s="14"/>
       <c r="Z89" s="189" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AA89" s="190">
         <v>5.1200000000000002E-2</v>
@@ -27189,14 +27186,14 @@
       <c r="AE89" s="7"/>
       <c r="AF89" s="12"/>
       <c r="AG89" s="167" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AH89" s="206">
         <v>531</v>
       </c>
       <c r="AI89" s="14"/>
       <c r="AJ89" s="189" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AK89" s="190">
         <v>5.1200000000000002E-2</v>
@@ -27207,17 +27204,17 @@
       <c r="AO89" s="7"/>
       <c r="AP89" s="12"/>
       <c r="AQ89" s="167" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AR89" s="206">
         <v>2426</v>
       </c>
       <c r="AS89" s="14"/>
       <c r="AT89" s="189" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AU89" s="190">
-        <v>8.7406548446149424E-2</v>
+        <v>8.7229815529332164E-2</v>
       </c>
       <c r="AV89" s="17"/>
       <c r="AW89" s="7"/>
@@ -27225,17 +27222,17 @@
       <c r="AY89" s="7"/>
       <c r="AZ89" s="12"/>
       <c r="BA89" s="167" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BB89" s="206">
         <v>855</v>
       </c>
       <c r="BC89" s="14"/>
       <c r="BD89" s="189" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="BE89" s="190">
-        <v>0.13937710477553297</v>
+        <v>0.1392424724909592</v>
       </c>
       <c r="BF89" s="17"/>
       <c r="BG89" s="7"/>
@@ -27243,14 +27240,14 @@
       <c r="BI89" s="7"/>
       <c r="BJ89" s="12"/>
       <c r="BK89" s="167" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BL89" s="206">
-        <v>2140</v>
+        <v>1906</v>
       </c>
       <c r="BM89" s="14"/>
       <c r="BN89" s="189" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="BO89" s="190">
         <v>5.1200000000000002E-2</v>
@@ -27261,17 +27258,17 @@
       <c r="BS89" s="7"/>
       <c r="BT89" s="12"/>
       <c r="BU89" s="167" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BV89" s="206">
         <v>2338</v>
       </c>
       <c r="BW89" s="14"/>
       <c r="BX89" s="189" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="BY89" s="190">
-        <v>0.14119999999999999</v>
+        <v>5.1200000000000002E-2</v>
       </c>
       <c r="BZ89" s="17"/>
       <c r="CA89" s="7"/>
@@ -27279,14 +27276,14 @@
       <c r="CC89" s="7"/>
       <c r="CD89" s="12"/>
       <c r="CE89" s="167" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="CF89" s="206">
         <v>717</v>
       </c>
       <c r="CG89" s="14"/>
       <c r="CH89" s="189" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="CI89" s="190">
         <v>5.1200000000000002E-2</v>
@@ -27297,14 +27294,14 @@
       <c r="CM89" s="7"/>
       <c r="CN89" s="12"/>
       <c r="CO89" s="167" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="CP89" s="206">
         <v>749</v>
       </c>
       <c r="CQ89" s="14"/>
       <c r="CR89" s="189" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="CS89" s="190">
         <v>5.1200000000000002E-2</v>
@@ -27350,7 +27347,7 @@
     <row r="90" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B90" s="12"/>
       <c r="C90" s="167" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D90" s="206">
         <v>310</v>
@@ -27364,7 +27361,7 @@
       <c r="K90" s="7"/>
       <c r="L90" s="12"/>
       <c r="M90" s="167" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="N90" s="206">
         <v>285</v>
@@ -27378,7 +27375,7 @@
       <c r="U90" s="7"/>
       <c r="V90" s="12"/>
       <c r="W90" s="167" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="X90" s="206">
         <v>250</v>
@@ -27392,7 +27389,7 @@
       <c r="AE90" s="7"/>
       <c r="AF90" s="12"/>
       <c r="AG90" s="167" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AH90" s="206">
         <v>637</v>
@@ -27406,7 +27403,7 @@
       <c r="AO90" s="7"/>
       <c r="AP90" s="12"/>
       <c r="AQ90" s="167" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AR90" s="206">
         <v>474</v>
@@ -27420,7 +27417,7 @@
       <c r="AY90" s="7"/>
       <c r="AZ90" s="12"/>
       <c r="BA90" s="167" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="BB90" s="206">
         <v>394</v>
@@ -27434,7 +27431,7 @@
       <c r="BI90" s="7"/>
       <c r="BJ90" s="12"/>
       <c r="BK90" s="167" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="BL90" s="206">
         <v>1266</v>
@@ -27448,10 +27445,10 @@
       <c r="BS90" s="7"/>
       <c r="BT90" s="12"/>
       <c r="BU90" s="167" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="BV90" s="206">
-        <v>1266</v>
+        <v>1486</v>
       </c>
       <c r="BW90" s="14"/>
       <c r="BX90" s="189"/>
@@ -27462,7 +27459,7 @@
       <c r="CC90" s="7"/>
       <c r="CD90" s="12"/>
       <c r="CE90" s="167" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="CF90" s="206">
         <v>346</v>
@@ -27476,7 +27473,7 @@
       <c r="CM90" s="7"/>
       <c r="CN90" s="12"/>
       <c r="CO90" s="167" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="CP90" s="206">
         <v>181</v>
@@ -27527,7 +27524,7 @@
     <row r="91" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B91" s="12"/>
       <c r="C91" s="181" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D91" s="209">
         <v>958</v>
@@ -27543,7 +27540,7 @@
       <c r="K91" s="7"/>
       <c r="L91" s="12"/>
       <c r="M91" s="181" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="N91" s="209">
         <v>1512</v>
@@ -27559,7 +27556,7 @@
       <c r="U91" s="7"/>
       <c r="V91" s="12"/>
       <c r="W91" s="181" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="X91" s="209">
         <v>1404</v>
@@ -27575,7 +27572,7 @@
       <c r="AE91" s="7"/>
       <c r="AF91" s="12"/>
       <c r="AG91" s="181" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AH91" s="209">
         <v>1061</v>
@@ -27591,7 +27588,7 @@
       <c r="AO91" s="7"/>
       <c r="AP91" s="12"/>
       <c r="AQ91" s="181" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AR91" s="209">
         <v>4852</v>
@@ -27607,7 +27604,7 @@
       <c r="AY91" s="7"/>
       <c r="AZ91" s="12"/>
       <c r="BA91" s="181" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="BB91" s="209">
         <v>1710</v>
@@ -27623,10 +27620,10 @@
       <c r="BI91" s="7"/>
       <c r="BJ91" s="12"/>
       <c r="BK91" s="181" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="BL91" s="209">
-        <v>4279</v>
+        <v>3812</v>
       </c>
       <c r="BM91" s="14"/>
       <c r="BN91" s="187" t="s">
@@ -27639,7 +27636,7 @@
       <c r="BS91" s="7"/>
       <c r="BT91" s="12"/>
       <c r="BU91" s="181" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="BV91" s="209">
         <v>4675</v>
@@ -27655,7 +27652,7 @@
       <c r="CC91" s="7"/>
       <c r="CD91" s="12"/>
       <c r="CE91" s="181" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="CF91" s="209">
         <v>1434</v>
@@ -27671,7 +27668,7 @@
       <c r="CM91" s="7"/>
       <c r="CN91" s="12"/>
       <c r="CO91" s="181" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="CP91" s="209">
         <v>1498</v>
@@ -27747,10 +27744,10 @@
       </c>
       <c r="E92" s="14"/>
       <c r="F92" s="189" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G92" s="198">
-        <v>0.32867118577928323</v>
+        <v>0.32694787028083161</v>
       </c>
       <c r="H92" s="17"/>
       <c r="I92" s="7"/>
@@ -27765,10 +27762,10 @@
       </c>
       <c r="O92" s="14"/>
       <c r="P92" s="189" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Q92" s="198">
-        <v>0.37956022936673561</v>
+        <v>0.37757008829515787</v>
       </c>
       <c r="R92" s="17"/>
       <c r="S92" s="7"/>
@@ -27783,10 +27780,10 @@
       </c>
       <c r="Y92" s="14"/>
       <c r="Z92" s="189" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AA92" s="198">
-        <v>0.38260352862966318</v>
+        <v>0.38059743068381979</v>
       </c>
       <c r="AB92" s="17"/>
       <c r="AC92" s="7"/>
@@ -27801,10 +27798,10 @@
       </c>
       <c r="AI92" s="14"/>
       <c r="AJ92" s="189" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AK92" s="198">
-        <v>0.46476492557633275</v>
+        <v>0.46232803231024572</v>
       </c>
       <c r="AL92" s="17"/>
       <c r="AM92" s="7"/>
@@ -27819,10 +27816,10 @@
       </c>
       <c r="AS92" s="14"/>
       <c r="AT92" s="189" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AU92" s="198">
-        <v>0.81812010791624801</v>
+        <v>0.81383047401291664</v>
       </c>
       <c r="AV92" s="17"/>
       <c r="AW92" s="7"/>
@@ -27837,10 +27834,10 @@
       </c>
       <c r="BC92" s="14"/>
       <c r="BD92" s="189" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BE92" s="198">
-        <v>0.62323069843526635</v>
+        <v>0.61996292453784441</v>
       </c>
       <c r="BF92" s="17"/>
       <c r="BG92" s="7"/>
@@ -27851,14 +27848,14 @@
         <v>75</v>
       </c>
       <c r="BL92" s="168">
-        <v>27.857537926675096</v>
+        <v>25.090075853350189</v>
       </c>
       <c r="BM92" s="14"/>
       <c r="BN92" s="189" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BO92" s="198">
-        <v>0.43246653248834577</v>
+        <v>0.43214303916073993</v>
       </c>
       <c r="BP92" s="17"/>
       <c r="BQ92" s="7"/>
@@ -27869,14 +27866,14 @@
         <v>75</v>
       </c>
       <c r="BV92" s="168">
-        <v>30.204250948166877</v>
+        <v>26.096651210369401</v>
       </c>
       <c r="BW92" s="14"/>
       <c r="BX92" s="189" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BY92" s="198">
-        <v>0.4241323309774705</v>
+        <v>0.48963566007149351</v>
       </c>
       <c r="BZ92" s="17"/>
       <c r="CA92" s="7"/>
@@ -27891,10 +27888,10 @@
       </c>
       <c r="CG92" s="14"/>
       <c r="CH92" s="189" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="CI92" s="198">
-        <v>0.44133419343652341</v>
+        <v>0.44215570228790341</v>
       </c>
       <c r="CJ92" s="17"/>
       <c r="CK92" s="7"/>
@@ -27909,10 +27906,10 @@
       </c>
       <c r="CQ92" s="14"/>
       <c r="CR92" s="189" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="CS92" s="198">
-        <v>0.44133419343652341</v>
+        <v>0.44215570228790341</v>
       </c>
       <c r="CT92" s="17"/>
       <c r="CU92" s="7"/>
@@ -27980,10 +27977,10 @@
       </c>
       <c r="E93" s="14"/>
       <c r="F93" s="189" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G93" s="198">
-        <v>0.10193510647866673</v>
+        <v>7.8927133449950254E-2</v>
       </c>
       <c r="H93" s="17"/>
       <c r="I93" s="7"/>
@@ -27998,10 +27995,10 @@
       </c>
       <c r="O93" s="14"/>
       <c r="P93" s="189" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q93" s="198">
-        <v>0.34860660136574684</v>
+        <v>0.26992192089666611</v>
       </c>
       <c r="R93" s="17"/>
       <c r="S93" s="7"/>
@@ -28016,10 +28013,10 @@
       </c>
       <c r="Y93" s="14"/>
       <c r="Z93" s="189" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AA93" s="198">
-        <v>0.32639868485585133</v>
+        <v>0.25272659682655574</v>
       </c>
       <c r="AB93" s="17"/>
       <c r="AC93" s="7"/>
@@ -28034,10 +28031,10 @@
       </c>
       <c r="AI93" s="14"/>
       <c r="AJ93" s="189" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AK93" s="198">
-        <v>0.16922576750773888</v>
+        <v>0.13102948725568705</v>
       </c>
       <c r="AL93" s="17"/>
       <c r="AM93" s="7"/>
@@ -28052,10 +28049,10 @@
       </c>
       <c r="AS93" s="14"/>
       <c r="AT93" s="189" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AU93" s="198">
-        <v>1.8302437946021837</v>
+        <v>1.4171358741136162</v>
       </c>
       <c r="AV93" s="17"/>
       <c r="AW93" s="7"/>
@@ -28070,10 +28067,10 @@
       </c>
       <c r="BC93" s="14"/>
       <c r="BD93" s="189" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="BE93" s="198">
-        <v>0.4766826553171703</v>
+        <v>0.36908967723861485</v>
       </c>
       <c r="BF93" s="17"/>
       <c r="BG93" s="7"/>
@@ -28084,14 +28081,14 @@
         <v>77</v>
       </c>
       <c r="BL93" s="168">
-        <v>193.04136567635902</v>
+        <v>196.5441311630847</v>
       </c>
       <c r="BM93" s="14"/>
       <c r="BN93" s="189" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="BO93" s="198">
-        <v>1.1657144961594927</v>
+        <v>0.9500182425476017</v>
       </c>
       <c r="BP93" s="17"/>
       <c r="BQ93" s="7"/>
@@ -28102,14 +28099,14 @@
         <v>77</v>
       </c>
       <c r="BV93" s="168">
-        <v>89.47276931890012</v>
+        <v>189.35497563782462</v>
       </c>
       <c r="BW93" s="14"/>
       <c r="BX93" s="189" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="BY93" s="198">
-        <v>0.22801458428773916</v>
+        <v>1.0616324119887246</v>
       </c>
       <c r="BZ93" s="17"/>
       <c r="CA93" s="7"/>
@@ -28120,14 +28117,14 @@
         <v>77</v>
       </c>
       <c r="CF93" s="168">
-        <v>227.59801388205321</v>
+        <v>241.5480138820532</v>
       </c>
       <c r="CG93" s="14"/>
       <c r="CH93" s="189" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="CI93" s="198">
-        <v>0.22147648791202312</v>
+        <v>0.18720584421805769</v>
       </c>
       <c r="CJ93" s="17"/>
       <c r="CK93" s="7"/>
@@ -28138,14 +28135,14 @@
         <v>77</v>
       </c>
       <c r="CP93" s="168">
-        <v>325.99035727312918</v>
+        <v>341.29035727312919</v>
       </c>
       <c r="CQ93" s="14"/>
       <c r="CR93" s="189" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="CS93" s="198">
-        <v>0.22147648791202312</v>
+        <v>0.18720584421805769</v>
       </c>
       <c r="CT93" s="17"/>
       <c r="CU93" s="7"/>
@@ -28194,17 +28191,17 @@
     <row r="94" spans="2:122" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B94" s="12"/>
       <c r="C94" s="191" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D94" s="210">
         <v>0.03</v>
       </c>
       <c r="E94" s="14"/>
       <c r="F94" s="211" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G94" s="212">
-        <v>6.7241252854106467E-2</v>
+        <v>6.7170252255570259E-2</v>
       </c>
       <c r="H94" s="17"/>
       <c r="I94" s="7"/>
@@ -28212,17 +28209,17 @@
       <c r="K94" s="7"/>
       <c r="L94" s="12"/>
       <c r="M94" s="191" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="N94" s="210">
         <v>0.03</v>
       </c>
       <c r="O94" s="14"/>
       <c r="P94" s="211" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Q94" s="212">
-        <v>6.9337881449909503E-2</v>
+        <v>6.9255887637760499E-2</v>
       </c>
       <c r="R94" s="17"/>
       <c r="S94" s="7"/>
@@ -28230,17 +28227,17 @@
       <c r="U94" s="7"/>
       <c r="V94" s="12"/>
       <c r="W94" s="191" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="X94" s="210">
         <v>0.03</v>
       </c>
       <c r="Y94" s="14"/>
       <c r="Z94" s="211" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AA94" s="212">
-        <v>6.9463265379542116E-2</v>
+        <v>6.9380614144173375E-2</v>
       </c>
       <c r="AB94" s="17"/>
       <c r="AC94" s="7"/>
@@ -28248,17 +28245,17 @@
       <c r="AE94" s="7"/>
       <c r="AF94" s="12"/>
       <c r="AG94" s="191" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AH94" s="210">
         <v>0.03</v>
       </c>
       <c r="AI94" s="14"/>
       <c r="AJ94" s="211" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AK94" s="212">
-        <v>7.2848314933744912E-2</v>
+        <v>7.2747914931182128E-2</v>
       </c>
       <c r="AL94" s="17"/>
       <c r="AM94" s="7"/>
@@ -28266,17 +28263,17 @@
       <c r="AO94" s="7"/>
       <c r="AP94" s="12"/>
       <c r="AQ94" s="191" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AR94" s="210">
         <v>0.03</v>
       </c>
       <c r="AS94" s="14"/>
       <c r="AT94" s="211" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AU94" s="212">
-        <v>8.7406548446149424E-2</v>
+        <v>8.7229815529332164E-2</v>
       </c>
       <c r="AV94" s="17"/>
       <c r="AW94" s="7"/>
@@ -28284,17 +28281,17 @@
       <c r="AY94" s="7"/>
       <c r="AZ94" s="12"/>
       <c r="BA94" s="191" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BB94" s="210">
         <v>0.03</v>
       </c>
       <c r="BC94" s="14"/>
       <c r="BD94" s="211" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BE94" s="212">
-        <v>0.13937710477553297</v>
+        <v>0.1392424724909592</v>
       </c>
       <c r="BF94" s="17"/>
       <c r="BG94" s="7"/>
@@ -28302,17 +28299,17 @@
       <c r="BI94" s="7"/>
       <c r="BJ94" s="12"/>
       <c r="BK94" s="191" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BL94" s="210">
         <v>0.03</v>
       </c>
       <c r="BM94" s="14"/>
       <c r="BN94" s="211" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BO94" s="212">
-        <v>7.1517621138519838E-2</v>
+        <v>7.1504293213422485E-2</v>
       </c>
       <c r="BP94" s="17"/>
       <c r="BQ94" s="7"/>
@@ -28320,17 +28317,17 @@
       <c r="BS94" s="7"/>
       <c r="BT94" s="12"/>
       <c r="BU94" s="191" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BV94" s="210">
         <v>0.03</v>
       </c>
       <c r="BW94" s="14"/>
       <c r="BX94" s="211" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BY94" s="212">
-        <v>0.1836742520362718</v>
+        <v>7.3872989194945532E-2</v>
       </c>
       <c r="BZ94" s="17"/>
       <c r="CA94" s="7"/>
@@ -28338,17 +28335,17 @@
       <c r="CC94" s="7"/>
       <c r="CD94" s="12"/>
       <c r="CE94" s="191" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="CF94" s="210">
         <v>0.03</v>
       </c>
       <c r="CG94" s="14"/>
       <c r="CH94" s="211" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="CI94" s="212">
-        <v>7.1882968769584762E-2</v>
+        <v>7.1916814934261622E-2</v>
       </c>
       <c r="CJ94" s="17"/>
       <c r="CK94" s="7"/>
@@ -28356,17 +28353,17 @@
       <c r="CM94" s="7"/>
       <c r="CN94" s="12"/>
       <c r="CO94" s="191" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="CP94" s="210">
         <v>0.03</v>
       </c>
       <c r="CQ94" s="14"/>
       <c r="CR94" s="211" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="CS94" s="212">
-        <v>7.1882968769584762E-2</v>
+        <v>7.1916814934261622E-2</v>
       </c>
       <c r="CT94" s="17"/>
       <c r="CU94" s="7"/>
@@ -28571,10 +28568,10 @@
         <v>0.4108</v>
       </c>
       <c r="DQ95" s="53">
-        <v>6.7001062720366572E-2</v>
+        <v>6.6930549073091899E-2</v>
       </c>
       <c r="DR95" s="54">
-        <v>0.3437989372796334</v>
+        <v>0.34386945092690813</v>
       </c>
     </row>
     <row r="96" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -28724,10 +28721,10 @@
         <v>0.52310000000000001</v>
       </c>
       <c r="DQ96" s="53">
-        <v>6.9320393887146406E-2</v>
+        <v>6.9238438705217675E-2</v>
       </c>
       <c r="DR96" s="54">
-        <v>0.45377960611285362</v>
+        <v>0.45386156129478233</v>
       </c>
     </row>
     <row r="97" spans="2:122" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -28877,10 +28874,10 @@
         <v>0.48070000000000002</v>
       </c>
       <c r="DQ97" s="53">
-        <v>6.8369268558610391E-2</v>
+        <v>6.8288952379578549E-2</v>
       </c>
       <c r="DR97" s="54">
-        <v>0.41233073144138965</v>
+        <v>0.41241104762042147</v>
       </c>
     </row>
     <row r="98" spans="2:122" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
@@ -29030,10 +29027,10 @@
         <v>0.42059999999999997</v>
       </c>
       <c r="DQ98" s="53">
-        <v>7.2788104741194889E-2</v>
+        <v>7.2687853529038421E-2</v>
       </c>
       <c r="DR98" s="54">
-        <v>0.34781189525880507</v>
+        <v>0.34791214647096158</v>
       </c>
     </row>
     <row r="99" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -29183,10 +29180,10 @@
         <v>0.8569</v>
       </c>
       <c r="DQ99" s="53">
-        <v>8.7401924193765662E-2</v>
+        <v>8.7225206085948692E-2</v>
       </c>
       <c r="DR99" s="54">
-        <v>0.76949807580623431</v>
+        <v>0.76967479391405136</v>
       </c>
     </row>
     <row r="100" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -29336,10 +29333,10 @@
         <v>0.84919999999999995</v>
       </c>
       <c r="DQ100" s="53">
-        <v>0.13935965952118562</v>
+        <v>0.13922506024377893</v>
       </c>
       <c r="DR100" s="54">
-        <v>0.70984034047881428</v>
+        <v>0.70997493975622106</v>
       </c>
     </row>
     <row r="101" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -29462,19 +29459,19 @@
         <v>56</v>
       </c>
       <c r="DN101" s="51">
-        <v>165294435.86805677</v>
+        <v>173706189.82213178</v>
       </c>
       <c r="DO101" s="52">
-        <v>6137005737.5629444</v>
+        <v>6444930082.772995</v>
       </c>
       <c r="DP101" s="53">
-        <v>0.52149999999999996</v>
+        <v>0.52569999999999995</v>
       </c>
       <c r="DQ101" s="53">
-        <v>7.150158865897964E-2</v>
+        <v>7.1489031907578993E-2</v>
       </c>
       <c r="DR101" s="54">
-        <v>0.44999841134102031</v>
+        <v>0.45421096809242095</v>
       </c>
     </row>
     <row r="102" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -29599,19 +29596,19 @@
         <v>60</v>
       </c>
       <c r="DN102" s="51">
-        <v>12283075.163054029</v>
+        <v>191563183.09480506</v>
       </c>
       <c r="DO102" s="52">
-        <v>-3838135431.8626542</v>
+        <v>6663559938.9517727</v>
       </c>
       <c r="DP102" s="53">
-        <v>0.21809999999999999</v>
+        <v>0.54590000000000005</v>
       </c>
       <c r="DQ102" s="53">
-        <v>0.18365195270682802</v>
+        <v>7.3866613316380905E-2</v>
       </c>
       <c r="DR102" s="54">
-        <v>3.4448047293171968E-2</v>
+        <v>0.47203338668361916</v>
       </c>
     </row>
     <row r="103" spans="2:122" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -29752,19 +29749,19 @@
         <v>63</v>
       </c>
       <c r="DN103" s="51">
-        <v>52454922.011627778</v>
+        <v>57679837.45854973</v>
       </c>
       <c r="DO103" s="52">
-        <v>1780817885.5216422</v>
+        <v>1960492300.9456496</v>
       </c>
       <c r="DP103" s="53">
-        <v>0.4511</v>
+        <v>0.46260000000000001</v>
       </c>
       <c r="DQ103" s="53">
-        <v>7.300452937215221E-2</v>
+        <v>7.3073892948446795E-2</v>
       </c>
       <c r="DR103" s="54">
-        <v>0.37809547062784776</v>
+        <v>0.38952610705155322</v>
       </c>
     </row>
     <row r="104" spans="2:122" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -29905,19 +29902,19 @@
         <v>67</v>
       </c>
       <c r="DN104" s="82">
-        <v>30503701.676191162</v>
+        <v>33501459.786009867</v>
       </c>
       <c r="DO104" s="83">
-        <v>999895472.34767699</v>
+        <v>1101838775.5533822</v>
       </c>
       <c r="DP104" s="84">
-        <v>0.3695</v>
+        <v>0.38250000000000001</v>
       </c>
       <c r="DQ104" s="84">
-        <v>7.183854160069518E-2</v>
+        <v>7.1876463810564742E-2</v>
       </c>
       <c r="DR104" s="85">
-        <v>0.2976614583993048</v>
+        <v>0.31062353618943528</v>
       </c>
     </row>
     <row r="105" spans="2:122" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
@@ -30612,7 +30609,7 @@
         <v>1381047910.1307054</v>
       </c>
       <c r="DH109" s="61">
-        <v>6134501987.5629444</v>
+        <v>6442426332.772995</v>
       </c>
       <c r="DI109" s="61"/>
       <c r="DJ109" s="61"/>
@@ -30753,7 +30750,7 @@
         <v>1331256255.4963861</v>
       </c>
       <c r="DH110" s="61">
-        <v>-3839155431.8626542</v>
+        <v>6662539938.9517727</v>
       </c>
       <c r="DI110" s="61"/>
       <c r="DJ110" s="61"/>
@@ -30894,7 +30891,7 @@
         <v>748629033.90763175</v>
       </c>
       <c r="DH111" s="61">
-        <v>1779697885.5216422</v>
+        <v>1959372300.9456496</v>
       </c>
       <c r="DI111" s="61"/>
       <c r="DJ111" s="61"/>
@@ -31035,7 +31032,7 @@
         <v>723988912.54997921</v>
       </c>
       <c r="DH112" s="76">
-        <v>998775472.34767699</v>
+        <v>1100718775.5533822</v>
       </c>
       <c r="DI112" s="76"/>
       <c r="DJ112" s="76"/>
@@ -31399,7 +31396,7 @@
       <c r="CW115" s="7"/>
       <c r="CX115" s="7"/>
       <c r="CY115" s="95">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="CZ115" s="119" t="s">
         <v>32</v>
@@ -31542,7 +31539,7 @@
       <c r="CW116" s="7"/>
       <c r="CX116" s="7"/>
       <c r="CY116" s="95">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="CZ116" s="119" t="s">
         <v>36</v>
@@ -31685,7 +31682,7 @@
       <c r="CW117" s="7"/>
       <c r="CX117" s="7"/>
       <c r="CY117" s="95">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CZ117" s="119" t="s">
         <v>40</v>
@@ -31828,7 +31825,7 @@
       <c r="CW118" s="7"/>
       <c r="CX118" s="7"/>
       <c r="CY118" s="95">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CZ118" s="119" t="s">
         <v>44</v>
@@ -32114,7 +32111,7 @@
       <c r="CW120" s="7"/>
       <c r="CX120" s="7"/>
       <c r="CY120" s="95">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CZ120" s="119" t="s">
         <v>52</v>
@@ -32257,7 +32254,7 @@
       <c r="CW121" s="7"/>
       <c r="CX121" s="7"/>
       <c r="CY121" s="95">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CZ121" s="119" t="s">
         <v>56</v>
@@ -32284,7 +32281,7 @@
         <v>1383551660.1307054</v>
       </c>
       <c r="DH121" s="61">
-        <v>6137005737.5629444</v>
+        <v>6444930082.772995</v>
       </c>
       <c r="DI121" s="61"/>
       <c r="DJ121" s="61"/>
@@ -32400,7 +32397,7 @@
       <c r="CW122" s="7"/>
       <c r="CX122" s="7"/>
       <c r="CY122" s="95">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="CZ122" s="119" t="s">
         <v>60</v>
@@ -32427,7 +32424,7 @@
         <v>1332276255.4963861</v>
       </c>
       <c r="DH122" s="61">
-        <v>-3838135431.8626542</v>
+        <v>6663559938.9517727</v>
       </c>
       <c r="DI122" s="61"/>
       <c r="DJ122" s="61"/>
@@ -32570,7 +32567,7 @@
         <v>749749033.90763175</v>
       </c>
       <c r="DH123" s="61">
-        <v>1780817885.5216422</v>
+        <v>1960492300.9456496</v>
       </c>
       <c r="DI123" s="61"/>
       <c r="DJ123" s="61"/>
@@ -32686,7 +32683,7 @@
       <c r="CW124" s="7"/>
       <c r="CX124" s="7"/>
       <c r="CY124" s="130">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CZ124" s="131" t="s">
         <v>67</v>
@@ -32713,7 +32710,7 @@
         <v>725108912.54997921</v>
       </c>
       <c r="DH124" s="76">
-        <v>999895472.34767699</v>
+        <v>1101838775.5533822</v>
       </c>
       <c r="DI124" s="76"/>
       <c r="DJ124" s="76"/>
@@ -33948,7 +33945,7 @@
         <v>1175.3599235154938</v>
       </c>
       <c r="DH133" s="61">
-        <v>5220.852755372719</v>
+        <v>5482.9160278919107</v>
       </c>
       <c r="DI133" s="61"/>
       <c r="DJ133" s="61"/>
@@ -34089,7 +34086,7 @@
         <v>1132.9840472309668</v>
       </c>
       <c r="DH134" s="61">
-        <v>0.01</v>
+        <v>5670.2467565547004</v>
       </c>
       <c r="DI134" s="61"/>
       <c r="DJ134" s="61"/>
@@ -34230,7 +34227,7 @@
         <v>637.13109268734615</v>
       </c>
       <c r="DH135" s="61">
-        <v>1514.6364983162912</v>
+        <v>1667.5508944218295</v>
       </c>
       <c r="DI135" s="61"/>
       <c r="DJ135" s="61"/>
@@ -34371,7 +34368,7 @@
         <v>616.16077663828014</v>
       </c>
       <c r="DH136" s="228">
-        <v>850.02167859376766</v>
+        <v>936.78193664117634</v>
       </c>
       <c r="DI136" s="228"/>
       <c r="DJ136" s="228"/>
